--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail0 Features.xlsx
@@ -6289,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6300,29 +6300,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6343,115 +6341,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6468,72 +6456,66 @@
         <v>5.028726415211327e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.707574303368627</v>
+        <v>3.301503429969896e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.847029167056789</v>
+        <v>2.584110389304197e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.301503429969896e-06</v>
+        <v>0.1034620424852455</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.584110389304197e-06</v>
+        <v>0.2895337248512448</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1034620424852455</v>
+        <v>0.09429853320701122</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2895337248512448</v>
+        <v>1.223794099822838</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09429853320701122</v>
+        <v>1.256530944504818</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.165667874712196</v>
+        <v>3.918484186899192</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.256530944504818</v>
+        <v>4.978694962825521e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.918484186899192</v>
+        <v>5957968.262980667</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.978694962825521e-14</v>
+        <v>1.314490475239345e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5957968.262980667</v>
+        <v>1.767306559888752</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.314490475239345e-05</v>
+        <v>0.0001380679977112658</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1.767306559888752</v>
+        <v>8.881760577334445</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001380679977112658</v>
+        <v>1.214980952041037</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.881760577334445</v>
+        <v>0.01089158663660321</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.214980952041037</v>
+        <v>2.871425812322216</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01089158663660321</v>
+        <v>0.8698032104512555</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.871425812322216</v>
+        <v>1.972415683797485</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.8698032104512555</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.972415683797485</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1721933762600135</v>
       </c>
     </row>
@@ -6548,72 +6530,66 @@
         <v>4.163403826021797e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.776055487424086</v>
+        <v>2.488753219472232e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.318472351189794</v>
+        <v>2.628528480669105e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.488753219472232e-06</v>
+        <v>0.09058959616501126</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.628528480669105e-06</v>
+        <v>0.2559965819486363</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09058959616501126</v>
+        <v>0.07357024305183851</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2559965819486363</v>
+        <v>1.244072312561019</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07357024305183851</v>
+        <v>1.308791006107846</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.181627960323723</v>
+        <v>3.416614506452643</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.308791006107846</v>
+        <v>3.938567027867728e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.416614506452643</v>
+        <v>7400172.595757317</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.938567027867728e-14</v>
+        <v>1.068099705303962e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>7400172.595757317</v>
+        <v>2.156859913067559</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.068099705303962e-05</v>
+        <v>0.0001528560297562868</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.156859913067559</v>
+        <v>9.929540156634971</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001528560297562868</v>
+        <v>1.173162086204586</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.929540156634971</v>
+        <v>0.01507095760479258</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.173162086204586</v>
+        <v>2.660471078017286</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01507095760479258</v>
+        <v>0.8840103069283455</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.660471078017286</v>
+        <v>1.958479614794377</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.8840103069283455</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.958479614794377</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1635978909597273</v>
       </c>
     </row>
@@ -6628,72 +6604,66 @@
         <v>3.659926870946093e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.0640022605467253</v>
+        <v>1.920300125625994e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.08080462271828504</v>
+        <v>2.660856735180711e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.920300125625994e-06</v>
+        <v>0.07536183805618522</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.660856735180711e-06</v>
+        <v>0.221806352021635</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07536183805618522</v>
+        <v>0.05476871519701123</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.221806352021635</v>
+        <v>1.279295476223897</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05476871519701123</v>
+        <v>1.437722679154501</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.212242153035644</v>
+        <v>3.476146689923319</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.437722679154501</v>
+        <v>3.804819089982875e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.476146689923319</v>
+        <v>7458259.537617575</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.804819089982875e-14</v>
+        <v>1.085665218520424e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7458259.537617575</v>
+        <v>2.116454791977735</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.085665218520424e-05</v>
+        <v>0.0001581021249667957</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.116454791977735</v>
+        <v>9.928147386533892</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001581021249667957</v>
+        <v>1.159677021167479</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.928147386533892</v>
+        <v>0.01558382772855574</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.159677021167479</v>
+        <v>2.689022718148602</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01558382772855574</v>
+        <v>0.8938984982957529</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.689022718148602</v>
+        <v>1.955964275258609</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.8938984982957529</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.955964275258609</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1526839191619029</v>
       </c>
     </row>
@@ -6708,72 +6678,66 @@
         <v>3.382331145401617e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.326883349583576</v>
+        <v>1.516869810419565e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9325799379841619</v>
+        <v>2.684611793781566e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.516869810419565e-06</v>
+        <v>0.06023110613268436</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.684611793781566e-06</v>
+        <v>0.1917390412014056</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06023110613268436</v>
+        <v>0.04032560187984088</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1917390412014056</v>
+        <v>1.294581924934885</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04032560187984088</v>
+        <v>1.426457518563259</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.226894221784345</v>
+        <v>3.407028091248818</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.426457518563259</v>
+        <v>3.960762240954644e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.407028091248818</v>
+        <v>6905863.458801402</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.960762240954644e-14</v>
+        <v>1.163781720470938e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>6905863.458801402</v>
+        <v>1.888925144373105</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.163781720470938e-05</v>
+        <v>0.0001805571057416905</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1.888925144373105</v>
+        <v>9.125321049409637</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001805571057416905</v>
+        <v>1.433379113557912</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.125321049409637</v>
+        <v>0.01503525818786119</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.433379113557912</v>
+        <v>2.764348539926293</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01503525818786119</v>
+        <v>0.8985820667391469</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.764348539926293</v>
+        <v>1.980801312228861</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.8985820667391469</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.980801312228861</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.133159090643591</v>
       </c>
     </row>
@@ -6788,72 +6752,66 @@
         <v>3.238410031002683e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4665322064542304</v>
+        <v>1.228847678690472e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.274759620147141</v>
+        <v>2.702276161211507e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.228847678690472e-06</v>
+        <v>0.04730494275769675</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.702276161211507e-06</v>
+        <v>0.1688179894318624</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04730494275769675</v>
+        <v>0.03070223867864948</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1688179894318624</v>
+        <v>1.355165838977845</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03070223867864948</v>
+        <v>1.284346254581504</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.27605075407584</v>
+        <v>3.44247647573498</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.284346254581504</v>
+        <v>3.879611513389965e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.44247647573498</v>
+        <v>6478166.034933641</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.879611513389965e-14</v>
+        <v>1.356042631864931e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>6478166.034933641</v>
+        <v>1.628142410076971</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.356042631864931e-05</v>
+        <v>0.0001852270393199952</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1.628142410076971</v>
+        <v>9.160138803307289</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001852270393199952</v>
+        <v>1.471318859621482</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.160138803307289</v>
+        <v>0.01554205688343848</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.471318859621482</v>
+        <v>2.774337542603476</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01554205688343848</v>
+        <v>0.9069835785414492</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.774337542603476</v>
+        <v>1.938512352292139</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9069835785414492</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.938512352292139</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1318541961032155</v>
       </c>
     </row>
@@ -6868,72 +6826,66 @@
         <v>3.168146394274617e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4748943390384266</v>
+        <v>1.029353967445743e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.38026162294887</v>
+        <v>2.715815768524197e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.029353967445743e-06</v>
+        <v>0.03802122171245138</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.715815768524197e-06</v>
+        <v>0.1548357654679615</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03802122171245138</v>
+        <v>0.0254022904273506</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1548357654679615</v>
+        <v>1.35606469573637</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0254022904273506</v>
+        <v>1.306240684744584</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.277326799159914</v>
+        <v>3.641943838912417</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.306240684744584</v>
+        <v>3.277457183595013e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.641943838912417</v>
+        <v>7616486.393697681</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.277457183595013e-14</v>
+        <v>1.154919664096669e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7616486.393697681</v>
+        <v>1.901281261729004</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.154919664096669e-05</v>
+        <v>0.0001547690181328476</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1.901281261729004</v>
+        <v>9.988018244558441</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001547690181328476</v>
+        <v>1.16052556261111</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.988018244558441</v>
+        <v>0.01543983594180232</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.16052556261111</v>
+        <v>2.754783483128156</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01543983594180232</v>
+        <v>0.9070407182101367</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.754783483128156</v>
+        <v>1.942154106650126</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9070407182101367</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.942154106650126</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1546843620191422</v>
       </c>
     </row>
@@ -6948,72 +6900,66 @@
         <v>3.137764892179696e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4303654064264063</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.429437506178222</v>
+        <v>2.726824347846821e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.03253851972053431</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.726824347846821e-06</v>
+        <v>0.1475745143183168</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03253851972053431</v>
+        <v>0.02282790697955889</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1475745143183168</v>
+        <v>1.397226531722618</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02282790697955889</v>
+        <v>1.417128774366992</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.311805652328006</v>
+        <v>3.657544222841153</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.417128774366992</v>
+        <v>3.249558382257651e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.657544222841153</v>
+        <v>7541342.589274628</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.249558382257651e-14</v>
+        <v>1.193621174228084e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>7541342.589274628</v>
+        <v>1.848083905414854</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.193621174228084e-05</v>
+        <v>0.0001479236808095706</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1.848083905414854</v>
+        <v>9.890481846714719</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001479236808095706</v>
+        <v>1.127053235522164</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.890481846714719</v>
+        <v>0.01447013574401199</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.127053235522164</v>
+        <v>2.672789300108278</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01447013574401199</v>
+        <v>0.9188150114173167</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.672789300108278</v>
+        <v>1.945576742747712</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9188150114173167</v>
+        <v>5</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.945576742747712</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1665133533673999</v>
       </c>
     </row>
@@ -7028,72 +6974,66 @@
         <v>3.131497307203128e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3672701590610924</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.474508373545554</v>
+        <v>2.736631827417429e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.03069659012530353</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.736631827417429e-06</v>
+        <v>0.1452209182400257</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03069659012530353</v>
+        <v>0.02202494613181346</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1452209182400257</v>
+        <v>1.419556127720473</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02202494613181346</v>
+        <v>1.377643818590055</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.334058861560346</v>
+        <v>3.557632767380224</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.377643818590055</v>
+        <v>3.567484230080902e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.557632767380224</v>
+        <v>6896198.560364224</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.567484230080902e-14</v>
+        <v>1.315878988852047e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>6896198.560364224</v>
+        <v>1.696608259995233</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.315878988852047e-05</v>
+        <v>0.0001468080006077877</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1.696608259995233</v>
+        <v>8.927207152186103</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001468080006077877</v>
+        <v>1.192301689305694</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.927207152186103</v>
+        <v>0.01169986765124263</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.192301689305694</v>
+        <v>2.805785362899003</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01169986765124263</v>
+        <v>0.9259939470669878</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.805785362899003</v>
+        <v>1.938922746844816</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9259939470669878</v>
+        <v>2</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.938922746844816</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1607603818357126</v>
       </c>
     </row>
@@ -7108,72 +7048,66 @@
         <v>3.144211379431102e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2989749164193353</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.525515762366413</v>
+        <v>2.746350176648851e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.03162391946460385</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.746350176648851e-06</v>
+        <v>0.1459153532262547</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03162391946460385</v>
+        <v>0.02228625969764471</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1459153532262547</v>
+        <v>1.362684581571095</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02228625969764471</v>
+        <v>1.358508878833694</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.292445057500906</v>
+        <v>3.513323501285858</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.358508878833694</v>
+        <v>3.658036322153433e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.513323501285858</v>
+        <v>7416216.41279393</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.658036322153433e-14</v>
+        <v>1.133667604257442e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7416216.41279393</v>
+        <v>2.011929703222357</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.133667604257442e-05</v>
+        <v>0.0001599745265378518</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>2.011929703222357</v>
+        <v>8.499175182839517</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001599745265378518</v>
+        <v>1.365478217240163</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.499175182839517</v>
+        <v>0.01155591650570382</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.365478217240163</v>
+        <v>2.824104164246195</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01155591650570382</v>
+        <v>0.9167874375422931</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.824104164246195</v>
+        <v>1.914884340351502</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9167874375422931</v>
+        <v>3</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.914884340351502</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1459142022601527</v>
       </c>
     </row>
@@ -7188,72 +7122,66 @@
         <v>3.173255739197367e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2331019108743664</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.575291043514653</v>
+        <v>2.756553045359721e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.0328277770615957</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.756553045359721e-06</v>
+        <v>0.1458434798524874</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0328277770615957</v>
+        <v>0.02234674166624376</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1458434798524874</v>
+        <v>1.307876240422388</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02234674166624376</v>
+        <v>1.283071073133509</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.242213076068257</v>
+        <v>3.775745107803193</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.283071073133509</v>
+        <v>4.974660201158343e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.775745107803193</v>
+        <v>5807327.609720784</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.974660201158343e-14</v>
+        <v>1.376151355929421e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>5807327.609720784</v>
+        <v>1.677706837496883</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.376151355929421e-05</v>
+        <v>0.0001985633084447053</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1.677706837496883</v>
+        <v>9.098469409717367</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001985633084447053</v>
+        <v>1.546773210135207</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.098469409717367</v>
+        <v>0.01643749671040047</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.546773210135207</v>
+        <v>2.689107700706346</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01643749671040047</v>
+        <v>0.9053522352494725</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.689107700706346</v>
+        <v>1.978171383134806</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9053522352494725</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.978171383134806</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1253030142150404</v>
       </c>
     </row>
@@ -7268,72 +7196,66 @@
         <v>3.209517764100641e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1714228972385585</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.616271366724015</v>
+        <v>2.766994177296571e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.03230876928230215</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.766994177296571e-06</v>
+        <v>0.1442818124427221</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03230876928230215</v>
+        <v>0.02186112100172851</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1442818124427221</v>
+        <v>1.29911095953085</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02186112100172851</v>
+        <v>1.261706914257038</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.235092514101892</v>
+        <v>3.391769633293784</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.261706914257038</v>
+        <v>6.288503340147091e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.391769633293784</v>
+        <v>4605010.5051177</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.288503340147091e-14</v>
+        <v>1.690486522786812e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>4605010.5051177</v>
+        <v>1.333547674705547</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.690486522786812e-05</v>
+        <v>0.0002220208213875504</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1.333547674705547</v>
+        <v>10.32973661439614</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002220208213875504</v>
+        <v>1.434735721986981</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.32973661439614</v>
+        <v>0.02369038950612363</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.434735721986981</v>
+        <v>2.547943145220122</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02369038950612363</v>
+        <v>0.9036255737492411</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.547943145220122</v>
+        <v>1.963300709315067</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9036255737492411</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.963300709315067</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1155222920620039</v>
       </c>
     </row>
@@ -7348,72 +7270,66 @@
         <v>3.241713377440084e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1103680239114615</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.648952819782787</v>
+        <v>2.777141350960813e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.03043740017487265</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.777141350960813e-06</v>
+        <v>0.1435374168999414</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03043740017487265</v>
+        <v>0.02152871424877043</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1435374168999414</v>
+        <v>1.309850185643864</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02152871424877043</v>
+        <v>1.350692611319456</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.245327347090034</v>
+        <v>3.386540458917781</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.350692611319456</v>
+        <v>6.307938553668525e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.386540458917781</v>
+        <v>4488651.719911716</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.307938553668525e-14</v>
+        <v>1.772350135674298e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>4488651.719911716</v>
+        <v>1.270923097885656</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.772350135674298e-05</v>
+        <v>0.0001868748595234939</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1.270923097885656</v>
+        <v>10.91112704520469</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001868748595234939</v>
+        <v>1.169876789780969</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.91112704520469</v>
+        <v>0.02224795535438272</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.169876789780969</v>
+        <v>2.565438500077506</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02224795535438272</v>
+        <v>0.9063647240616904</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.565438500077506</v>
+        <v>1.963512373035043</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9063647240616904</v>
+        <v>2</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.963512373035043</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1291259488471772</v>
       </c>
     </row>
@@ -7428,72 +7344,66 @@
         <v>3.263930322445532e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.04832255160643251</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.672125089109189</v>
+        <v>2.786671320021322e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.02809019809393313</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.786671320021322e-06</v>
+        <v>0.1440206318655385</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.02809019809393313</v>
+        <v>0.02152969851113255</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1440206318655385</v>
+        <v>1.345505119597306</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02152969851113255</v>
+        <v>1.299282525581513</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.270191876790661</v>
+        <v>3.461007108418081</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.299282525581513</v>
+        <v>6.039416881271114e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.461007108418081</v>
+        <v>4369701.614918693</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.039416881271114e-14</v>
+        <v>1.942649642349094e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>4369701.614918693</v>
+        <v>1.153183906692765</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.942649642349094e-05</v>
+        <v>0.0001729085384317557</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1.153183906692765</v>
+        <v>10.98043260122044</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001729085384317557</v>
+        <v>1.083966744226127</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.98043260122044</v>
+        <v>0.02084756520687332</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.083966744226127</v>
+        <v>2.454376030172496</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02084756520687332</v>
+        <v>0.9140319710702811</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.454376030172496</v>
+        <v>1.964056032055227</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9140319710702811</v>
+        <v>2</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.964056032055227</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1449783145504979</v>
       </c>
     </row>
@@ -7508,72 +7418,66 @@
         <v>3.275080640640343e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.01366487725641334</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.682804857171931</v>
+        <v>2.795468570197569e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.0256809173221644</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.795468570197569e-06</v>
+        <v>0.1453022763256266</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.0256809173221644</v>
+        <v>0.02177070721678798</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1453022763256266</v>
+        <v>1.351038622810557</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02177070721678798</v>
+        <v>1.320572826923317</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.275767476800788</v>
+        <v>3.664399847230574</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.320572826923317</v>
+        <v>5.387586777754305e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.664399847230574</v>
+        <v>4848053.005981878</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.387586777754305e-14</v>
+        <v>1.750853274071887e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>4848053.005981878</v>
+        <v>1.266277812903971</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.750853274071887e-05</v>
+        <v>0.0001673809677354043</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1.266277812903971</v>
+        <v>10.30510980665975</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001673809677354043</v>
+        <v>1.137284721638671</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.30510980665975</v>
+        <v>0.01777507009569006</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.137284721638671</v>
+        <v>2.518615116409457</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01777507009569006</v>
+        <v>0.9126643737560671</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.518615116409457</v>
+        <v>1.957816574499824</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9126643737560671</v>
+        <v>2</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.957816574499824</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.149645813017197</v>
       </c>
     </row>
@@ -7588,72 +7492,66 @@
         <v>3.276265424036117e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.07376946486934195</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.679569336325796</v>
+        <v>2.803491208270221e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.02325567531882489</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.803491208270221e-06</v>
+        <v>0.1470966678042596</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02325567531882489</v>
+        <v>0.02217663952110244</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1470966678042596</v>
+        <v>1.385203024062739</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02217663952110244</v>
+        <v>1.38088768308079</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.306716547835381</v>
+        <v>3.736390811258194</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.38088768308079</v>
+        <v>5.181976037505451e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.736390811258194</v>
+        <v>4965352.249086398</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.181976037505451e-14</v>
+        <v>1.732136806153597e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>4965352.249086398</v>
+        <v>1.277601835771386</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.732136806153597e-05</v>
+        <v>0.0001639296720576093</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1.277601835771386</v>
+        <v>8.789535409024177</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001639296720576093</v>
+        <v>1.2944832878395</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.789535409024177</v>
+        <v>0.01266453971307961</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.2944832878395</v>
+        <v>2.731923431385895</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01266453971307961</v>
+        <v>0.9194938935075773</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.731923431385895</v>
+        <v>1.963111080878484</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9194938935075773</v>
+        <v>9</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.963111080878484</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1429791242380372</v>
       </c>
     </row>
@@ -7668,72 +7566,66 @@
         <v>3.269473941760786e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1302107215151576</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.663213142386696</v>
+        <v>2.810702390811069e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.02075564503324711</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.810702390811069e-06</v>
+        <v>0.1492107596895103</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02075564503324711</v>
+        <v>0.0226930820699085</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1492107596895103</v>
+        <v>1.401219355445081</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0226930820699085</v>
+        <v>1.326610517363215</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.323928265887357</v>
+        <v>3.740231264338294</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.326610517363215</v>
+        <v>5.171339840313936e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.740231264338294</v>
+        <v>4942758.646549579</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.171339840313936e-14</v>
+        <v>1.752340307127185e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>4942758.646549579</v>
+        <v>1.263402953618726</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.752340307127185e-05</v>
+        <v>0.0001796269625805359</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1.263402953618726</v>
+        <v>8.352603814048727</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001796269625805359</v>
+        <v>1.601733858181917</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.352603814048727</v>
+        <v>0.01253185296035009</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.601733858181917</v>
+        <v>2.776629442328963</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01253185296035009</v>
+        <v>0.9239298347165418</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.776629442328963</v>
+        <v>1.96242859645827</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9239298347165418</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.96242859645827</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1323183777459017</v>
       </c>
     </row>
@@ -7748,72 +7640,66 @@
         <v>3.257169857036652e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1814544729303057</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.636417724375341</v>
+        <v>2.817052301900325e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01809678964748415</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.817052301900325e-06</v>
+        <v>0.1514547703160067</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.01809678964748415</v>
+        <v>0.02326456581320218</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1514547703160067</v>
+        <v>1.408276187194899</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02326456581320218</v>
+        <v>1.307637457601103</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.333593816663691</v>
+        <v>3.743021987693168</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.307637457601103</v>
+        <v>5.163631417071444e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.743021987693168</v>
+        <v>4954328.781971057</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.163631417071444e-14</v>
+        <v>1.75462421163928e-05</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>4954328.781971057</v>
+        <v>1.267432626771188</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.75462421163928e-05</v>
+        <v>0.0001770713008069857</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1.267432626771188</v>
+        <v>9.700143943692566</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001770713008069857</v>
+        <v>1.271218737497862</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.700143943692566</v>
+        <v>0.01666113316955774</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.271218737497862</v>
+        <v>2.668628814435528</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01666113316955774</v>
+        <v>0.9267016302544568</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.668628814435528</v>
+        <v>1.952861729394473</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9267016302544568</v>
+        <v>12</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.952861729394473</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1338001904580283</v>
       </c>
     </row>
@@ -7828,72 +7714,66 @@
         <v>3.242107851594296e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2261997608371134</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.603322177171876</v>
+        <v>2.82246905156939e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01515654585241165</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.82246905156939e-06</v>
+        <v>0.1536034374287679</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.01515654585241165</v>
+        <v>0.02382227939478298</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1536034374287679</v>
+        <v>1.41595528941481</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02382227939478298</v>
+        <v>1.295091738132955</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.341764347852233</v>
+        <v>3.759466247411936</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.295091738132955</v>
+        <v>5.118557790241202e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.759466247411936</v>
+        <v>5042788.012547215</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.118557790241202e-14</v>
+        <v>1.749923752537819e-05</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>5042788.012547215</v>
+        <v>1.301634450329079</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.749923752537819e-05</v>
+        <v>0.0001754135507358761</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1.301634450329079</v>
+        <v>11.09486607588907</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001754135507358761</v>
+        <v>1.087719736259095</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.09486607588907</v>
+        <v>0.02159271578073661</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.087719736259095</v>
+        <v>2.424037010773414</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02159271578073661</v>
+        <v>0.9277324978497272</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.424037010773414</v>
+        <v>1.954554475717706</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9277324978497272</v>
+        <v>12</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.954554475717706</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1444874192472032</v>
       </c>
     </row>
@@ -7908,72 +7788,66 @@
         <v>3.227159609831891e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2632120979613289</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.569159741588296</v>
+        <v>2.826850398123816e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01190881239464665</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.826850398123816e-06</v>
+        <v>0.1554199818590085</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.01190881239464665</v>
+        <v>0.02429582353496417</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1554199818590085</v>
+        <v>1.422198209185686</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02429582353496417</v>
+        <v>1.284486823500879</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.348938949839709</v>
+        <v>3.797865560961824</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.284486823500879</v>
+        <v>5.015576011770972e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.797865560961824</v>
+        <v>5144916.029846413</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.015576011770972e-14</v>
+        <v>1.715501093007576e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>5144916.029846413</v>
+        <v>1.327631043094545</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.715501093007576e-05</v>
+        <v>0.0001684661122986635</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1.327631043094545</v>
+        <v>10.4092122249849</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001684661122986635</v>
+        <v>1.122640520919408</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.4092122249849</v>
+        <v>0.01825358951587469</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.122640520919408</v>
+        <v>2.519091854097679</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01825358951587469</v>
+        <v>0.9276709756241656</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.519091854097679</v>
+        <v>1.960808055399855</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9276709756241656</v>
+        <v>12</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.960808055399855</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1473408781288092</v>
       </c>
     </row>
@@ -7988,72 +7862,66 @@
         <v>3.213983619515086e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2920776907804452</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.538028276510081</v>
+        <v>2.830213642959441e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.009104501081998275</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.830213642959441e-06</v>
+        <v>0.1569891250895541</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.009104501081998275</v>
+        <v>0.0247275088936033</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1569891250895541</v>
+        <v>1.422323934767241</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0247275088936033</v>
+        <v>1.268917719786797</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.350944367398224</v>
+        <v>3.872463930615959</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.268917719786797</v>
+        <v>4.824199158108574e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.872463930615959</v>
+        <v>5315635.985207637</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.824199158108574e-14</v>
+        <v>1.653597105418709e-05</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>5315635.985207637</v>
+        <v>1.363125035216917</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.653597105418709e-05</v>
+        <v>0.0001622251858024308</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1.363125035216917</v>
+        <v>9.00477619086822</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001622251858024308</v>
+        <v>1.245345417531381</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.00477619086822</v>
+        <v>0.01315419048279615</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.245345417531381</v>
+        <v>2.708496664661459</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01315419048279615</v>
+        <v>0.928269325341241</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.708496664661459</v>
+        <v>1.957010376161862</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.928269325341241</v>
+        <v>12</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.957010376161862</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1451425857004772</v>
       </c>
     </row>
@@ -8068,72 +7936,66 @@
         <v>3.202252659410883e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.3142412232426925</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.510478818949716</v>
+        <v>2.832812749403601e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.007231640452568774</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.832812749403601e-06</v>
+        <v>0.1583495881859343</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.007231640452568774</v>
+        <v>0.02512610777266963</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1583495881859343</v>
+        <v>1.427960522337637</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02512610777266963</v>
+        <v>1.253256139758886</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.357602252065797</v>
+        <v>4.015150409260485</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.253256139758886</v>
+        <v>4.487416221860527e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.015150409260485</v>
+        <v>5647839.258414312</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.487416221860527e-14</v>
+        <v>1.545909135272116e-05</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>5647839.258414312</v>
+        <v>1.43139998833886</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.545909135272116e-05</v>
+        <v>0.0001665019980353935</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1.43139998833886</v>
+        <v>8.210160191695591</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001665019980353935</v>
+        <v>1.453812732623327</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.210160191695591</v>
+        <v>0.01122335528818799</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.453812732623327</v>
+        <v>2.787723843905446</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01122335528818799</v>
+        <v>0.9296447510607605</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.787723843905446</v>
+        <v>1.95564649258073</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9296447510607605</v>
+        <v>12</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.95564649258073</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1406753009025409</v>
       </c>
     </row>
@@ -8148,72 +8010,66 @@
         <v>3.191176210845168e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.3317310193137714</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.485465042867863</v>
+        <v>2.834930210725717e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.00609025559760858</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.834930210725717e-06</v>
+        <v>0.1594325516420363</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.00609025559760858</v>
+        <v>0.02545516412344342</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1594325516420363</v>
+        <v>1.434341265348555</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02545516412344342</v>
+        <v>1.237114114555718</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.365723038828752</v>
+        <v>4.295640571943914</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.237114114555718</v>
+        <v>3.920524028320473e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.295640571943914</v>
+        <v>6416571.20517836</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.920524028320473e-14</v>
+        <v>1.356096752346282e-05</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>6416571.20517836</v>
+        <v>1.614173287383081</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.356096752346282e-05</v>
+        <v>0.0001748916721555985</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>1.614173287383081</v>
+        <v>9.048292883062404</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001748916721555985</v>
+        <v>1.348786541652808</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.048292883062404</v>
+        <v>0.01431866174270401</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.348786541652808</v>
+        <v>2.712484769854275</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01431866174270401</v>
+        <v>0.9300238085079132</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.712484769854275</v>
+        <v>1.96374188978001</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9300238085079132</v>
+        <v>12</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.96374188978001</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1371996944903386</v>
       </c>
     </row>
@@ -8228,72 +8084,66 @@
         <v>3.18027548749013e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.346063254162027</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.462117264470026</v>
+        <v>2.836755804315408e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.005431325449458579</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.836755804315408e-06</v>
+        <v>0.1602787442517343</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.005431325449458579</v>
+        <v>0.02571823811281108</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1602787442517343</v>
+        <v>1.433838789201097</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02571823811281108</v>
+        <v>1.242021065396849</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.369170939219159</v>
+        <v>4.486638916481696</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.242021065396849</v>
+        <v>3.194531457879245e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.486638916481696</v>
+        <v>7768941.646970505</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.194531457879245e-14</v>
+        <v>1.108034073735561e-05</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>7768941.646970505</v>
+        <v>1.928105919922292</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.108034073735561e-05</v>
+        <v>0.0002011464856595529</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1.928105919922292</v>
+        <v>12.43029956197906</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002011464856595529</v>
+        <v>1.026673022167579</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.43029956197906</v>
+        <v>0.03107961563039661</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.026673022167579</v>
+        <v>2.270173530217812</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.03107961563039661</v>
+        <v>0.9281419769850178</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.270173530217812</v>
+        <v>1.96099540583849</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9281419769850178</v>
+        <v>12</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.96099540583849</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1340540742378289</v>
       </c>
     </row>
@@ -8308,72 +8158,66 @@
         <v>3.16892017390156e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3585414655164227</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.439205003316801</v>
+        <v>2.838454202364017e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.005363123047314504</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.838454202364017e-06</v>
+        <v>0.1608907213600062</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.005363123047314504</v>
+        <v>0.02591408834614079</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1608907213600062</v>
+        <v>1.53138968114878</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02591408834614079</v>
+        <v>1.381203604517099</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.466770336608576</v>
+        <v>3.554298108013006</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.381203604517099</v>
+        <v>3.062828022480428e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.554298108013006</v>
+        <v>7105866.374053984</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.062828022480428e-14</v>
+        <v>1.335207525980823e-05</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>7105866.374053984</v>
+        <v>1.546524072852263</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.335207525980823e-05</v>
+        <v>0.0002452432282162349</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>1.546524072852263</v>
+        <v>13.0420127524178</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0002452432282162349</v>
+        <v>1.091810842792023</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>13.0420127524178</v>
+        <v>0.04171442535910239</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.091810842792023</v>
+        <v>2.193690790424536</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.04171442535910239</v>
+        <v>0.9386154111121553</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.193690790424536</v>
+        <v>1.920483660289146</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9386154111121553</v>
+        <v>11</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.920483660289146</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1147581861099357</v>
       </c>
     </row>
@@ -8388,72 +8232,66 @@
         <v>3.155809288039705e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.3705321881711789</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.414482032930747</v>
+        <v>2.84022953617569e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.005951453597790901</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.84022953617569e-06</v>
+        <v>0.1613341302235332</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.005951453597790901</v>
+        <v>0.02606363862654574</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1613341302235332</v>
+        <v>1.659728591382557</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02606363862654574</v>
+        <v>1.253599287493777</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.596863641691995</v>
+        <v>4.170808884650788</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.253599287493777</v>
+        <v>2.321273752646096e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.170808884650788</v>
+        <v>7812347.280889439</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.321273752646096e-14</v>
+        <v>1.425635675664178e-05</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>7812347.280889439</v>
+        <v>1.416737671386853</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.425635675664178e-05</v>
+        <v>0.0003149020435191736</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1.416737671386853</v>
+        <v>11.82010917108028</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0003149020435191736</v>
+        <v>1.430842590964827</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.82010917108028</v>
+        <v>0.04399653296928117</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.430842590964827</v>
+        <v>2.114250909422737</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.04399653296928117</v>
+        <v>0.9430056545651635</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.114250909422737</v>
+        <v>1.854461677494809</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9430056545651635</v>
+        <v>11</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.854461677494809</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1073220285344936</v>
       </c>
     </row>
@@ -8468,72 +8306,66 @@
         <v>3.139364600527459e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.3830707809187222</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.385566550336188</v>
+        <v>2.842276510158388e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.007131079559987672</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.842276510158388e-06</v>
+        <v>0.1617829697862972</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.007131079559987672</v>
+        <v>0.02622410945282943</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1617829697862972</v>
+        <v>1.707634163362788</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02622410945282943</v>
+        <v>1.300324758285822</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.657669292394245</v>
+        <v>5.246441625237292</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.300324758285822</v>
+        <v>8.684305822245477e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.246441625237292</v>
+        <v>20348172.03393566</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>8.684305822245477e-15</v>
+        <v>5.536925682241825e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>20348172.03393566</v>
+        <v>3.595720370006261</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.536925682241825e-06</v>
+        <v>0.0003264731598380486</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3.595720370006261</v>
+        <v>11.67178159398588</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0003264731598380486</v>
+        <v>1.464879353611904</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.67178159398588</v>
+        <v>0.04447559709282591</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.464879353611904</v>
+        <v>2.074881089845856</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.04447559709282591</v>
+        <v>0.9476190414367941</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.074881089845856</v>
+        <v>1.820988792946675</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9476190414367941</v>
+        <v>11</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.820988792946675</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1450191055749907</v>
       </c>
     </row>
@@ -8548,72 +8380,66 @@
         <v>3.118169239611466e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.3966105107235141</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.350737877673567</v>
+        <v>2.844737445530646e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.008564767161215257</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.844737445530646e-06</v>
+        <v>0.1624388026223277</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.008564767161215257</v>
+        <v>0.02645925588510749</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1624388026223277</v>
+        <v>1.75638986982586</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02645925588510749</v>
+        <v>1.441421134691738</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.710278513157922</v>
+        <v>5.265292524364925</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.441421134691738</v>
+        <v>2.739449571592222e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.265292524364925</v>
+        <v>64534401.44412297</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.739449571592222e-15</v>
+        <v>1.773384181073716e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>64534401.44412297</v>
+        <v>11.40895541399984</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.773384181073716e-06</v>
+        <v>0.0002762203892482567</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>11.40895541399984</v>
+        <v>11.79885517614389</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002762203892482567</v>
+        <v>1.321563304141386</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.79885517614389</v>
+        <v>0.03845346448183644</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.321563304141386</v>
+        <v>2.269254104691276</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.03845346448183644</v>
+        <v>0.9553499863854943</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.269254104691276</v>
+        <v>1.721310455569765</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9553499863854943</v>
+        <v>12</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.721310455569765</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2633813046998298</v>
       </c>
     </row>
@@ -8628,72 +8454,66 @@
         <v>3.091943139135668e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.4100941558948099</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.311067349547528</v>
+        <v>2.84757509218366e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.009597390793486715</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.84757509218366e-06</v>
+        <v>0.1634549810955683</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.009597390793486715</v>
+        <v>0.02680916905192048</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1634549810955683</v>
+        <v>1.793522094027088</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02680916905192048</v>
+        <v>1.600974182305502</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.760833562965177</v>
+        <v>4.05119202988708</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.600974182305502</v>
+        <v>2.249413275860939e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.05119202988708</v>
+        <v>78226792.39129548</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.249413275860939e-15</v>
+        <v>1.493534505564321e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>78226792.39129548</v>
+        <v>13.76512943970632</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.493534505564321e-06</v>
+        <v>0.0002572247764607454</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>13.76512943970632</v>
+        <v>9.749551754478347</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0002572247764607454</v>
+        <v>1.780508546745799</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.749551754478347</v>
+        <v>0.02445018201682717</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.780508546745799</v>
+        <v>2.696362890688588</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02445018201682717</v>
+        <v>0.9551821139101895</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.696362890688588</v>
+        <v>1.703844481452201</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9551821139101895</v>
+        <v>12</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.703844481452201</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2195247627512426</v>
       </c>
     </row>
@@ -8708,72 +8528,66 @@
         <v>3.061504855281158e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.4215296401790665</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.270081459831536</v>
+        <v>2.850620262260671e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01011530510108545</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.850620262260671e-06</v>
+        <v>0.1648985592588866</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.01011530510108545</v>
+        <v>0.02729334273786787</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1648985592588866</v>
+        <v>1.78272970884826</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02729334273786787</v>
+        <v>1.71619792814662</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.746561300385286</v>
+        <v>3.943695934986802</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.71619792814662</v>
+        <v>2.373712231060962e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.943695934986802</v>
+        <v>73837639.97648014</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.373712231060962e-15</v>
+        <v>1.578303224251495e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>73837639.97648014</v>
+        <v>12.94147214608684</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.578303224251495e-06</v>
+        <v>0.0001744321049779003</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>12.94147214608684</v>
+        <v>9.564205090774569</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001744321049779003</v>
+        <v>1.466266436746137</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.564205090774569</v>
+        <v>0.01595600568816768</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.466266436746137</v>
+        <v>2.923542150036222</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01595600568816768</v>
+        <v>0.9554681524308803</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.923542150036222</v>
+        <v>1.729074291544666</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9554681524308803</v>
+        <v>12</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.729074291544666</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1837919777346803</v>
       </c>
     </row>
@@ -8788,72 +8602,66 @@
         <v>3.027628578133452e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.4293706557367376</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.231274025033323</v>
+        <v>2.853748761356708e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01039240070080534</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.853748761356708e-06</v>
+        <v>0.1666713759168401</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.01039240070080534</v>
+        <v>0.02788687665678795</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1666713759168401</v>
+        <v>1.779806101608038</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02788687665678795</v>
+        <v>1.780265841347886</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.736660934898926</v>
+        <v>3.950242916937751</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.780265841347886</v>
+        <v>2.365850551048482e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.950242916937751</v>
+        <v>73379043.62993218</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.365850551048482e-15</v>
+        <v>1.586417674295224e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>73379043.62993218</v>
+        <v>12.73888454271205</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.586417674295224e-06</v>
+        <v>0.0001487290776556043</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>12.73888454271205</v>
+        <v>10.07226924089258</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001487290776556043</v>
+        <v>1.14079064566383</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.07226924089258</v>
+        <v>0.01508865530502568</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.14079064566383</v>
+        <v>2.797180647819964</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01508865530502568</v>
+        <v>0.9544738936454749</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.797180647819964</v>
+        <v>1.722979613806004</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9544738936454749</v>
+        <v>10</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.722979613806004</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1849695256909194</v>
       </c>
     </row>
@@ -8868,72 +8676,66 @@
         <v>2.990742396746964e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.4327062930483756</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.19739391583667</v>
+        <v>2.856909421996048e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01059422651794609</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.856909421996048e-06</v>
+        <v>0.1686968465493569</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.01059422651794609</v>
+        <v>0.028570491962696</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1686968465493569</v>
+        <v>1.778947158438268</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.028570491962696</v>
+        <v>1.714522994792372</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.731861584907647</v>
+        <v>3.959258194241088</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.714522994792372</v>
+        <v>2.355088678612595e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.959258194241088</v>
+        <v>73060475.5198462</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.355088678612595e-15</v>
+        <v>1.588969751335604e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>73060475.5198462</v>
+        <v>12.57107026253522</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.588969751335604e-06</v>
+        <v>0.0001499102462394467</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>12.57107026253522</v>
+        <v>9.96795007438199</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001499102462394467</v>
+        <v>1.166969673797768</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.96795007438199</v>
+        <v>0.01489508636658259</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.166969673797768</v>
+        <v>2.668269326502394</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01489508636658259</v>
+        <v>0.9533929162099624</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.668269326502394</v>
+        <v>1.732002649857875</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9533929162099624</v>
+        <v>6</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.732002649857875</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1860466850935155</v>
       </c>
     </row>
@@ -8948,72 +8750,66 @@
         <v>2.950964481273721e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.4309634410378578</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.170639380848191</v>
+        <v>2.860097884246239e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01087098988161226</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.860097884246239e-06</v>
+        <v>0.1709234193483704</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.01087098988161226</v>
+        <v>0.02933276125811164</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1709234193483704</v>
+        <v>1.776142418531295</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02933276125811164</v>
+        <v>1.680301143465314</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.726555352001731</v>
+        <v>3.941594813807991</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.680301143465314</v>
+        <v>2.376243585293417e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.941594813807991</v>
+        <v>72006187.34837377</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.376243585293417e-15</v>
+        <v>1.608865798663296e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>72006187.34837377</v>
+        <v>12.32056401828264</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.608865798663296e-06</v>
+        <v>0.000148362556980507</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>12.32056401828264</v>
+        <v>8.962165504143798</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.000148362556980507</v>
+        <v>1.223179404723252</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.962165504143798</v>
+        <v>0.01191654148301497</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.223179404723252</v>
+        <v>2.811074564020711</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01191654148301497</v>
+        <v>0.9526561760413845</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.811074564020711</v>
+        <v>1.743504934906189</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9526561760413845</v>
+        <v>6</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.743504934906189</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1789267487039471</v>
       </c>
     </row>
@@ -9028,72 +8824,66 @@
         <v>2.908259471521431e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.4238184766907276</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.152620785183123</v>
+        <v>2.86333386205321e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01124182110598086</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.86333386205321e-06</v>
+        <v>0.1733769137021033</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.01124182110598086</v>
+        <v>0.03018581682661698</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1733769137021033</v>
+        <v>1.771298383922219</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.03018581682661698</v>
+        <v>1.650718271185702</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.719313405865208</v>
+        <v>3.890856250945657</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.650718271185702</v>
+        <v>2.438622302260811e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.890856250945657</v>
+        <v>67796984.77249441</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.438622302260811e-15</v>
+        <v>1.700584409686165e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>67796984.77249441</v>
+        <v>11.20895949915433</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.700584409686165e-06</v>
+        <v>0.0001627386197601539</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>11.20895949915433</v>
+        <v>8.103575530400239</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001627386197601539</v>
+        <v>1.515077886586606</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.103575530400239</v>
+        <v>0.01068670932847456</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.515077886586606</v>
+        <v>2.892105324715007</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01068670932847456</v>
+        <v>0.9532855806249637</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.892105324715007</v>
+        <v>1.729963330263902</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9532855806249637</v>
+        <v>6</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.729963330263902</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1618096641087501</v>
       </c>
     </row>
@@ -9108,72 +8898,66 @@
         <v>2.862108069969498e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.4107734767951709</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.144961459208339</v>
+        <v>2.866671984561326e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01193787346815395</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.866671984561326e-06</v>
+        <v>0.1760595379001518</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.01193787346815395</v>
+        <v>0.03113936392867313</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1760595379001518</v>
+        <v>1.742988557237683</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03113936392867313</v>
+        <v>1.631132212284312</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.682752852706672</v>
+        <v>3.873038519483009</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.631132212284312</v>
+        <v>2.461111447975038e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.873038519483009</v>
+        <v>66334817.01303882</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.461111447975038e-15</v>
+        <v>1.72624713430119e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>66334817.01303882</v>
+        <v>10.82964826581575</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.72624713430119e-06</v>
+        <v>0.0001732885756636871</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>10.82964826581575</v>
+        <v>9.156029467086203</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001732885756636871</v>
+        <v>1.404583042591648</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.156029467086203</v>
+        <v>0.01452727960688779</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.404583042591648</v>
+        <v>2.825172220236546</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01452727960688779</v>
+        <v>0.9514104801221355</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.825172220236546</v>
+        <v>1.729069483617137</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9514104801221355</v>
+        <v>6</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.729069483617137</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1557427244716771</v>
       </c>
     </row>
@@ -9188,72 +8972,66 @@
         <v>2.811500986569681e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.3902523087299699</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.151727557245166</v>
+        <v>2.870176529887902e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.01275259953093448</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.870176529887902e-06</v>
+        <v>0.1791041817835755</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.01275259953093448</v>
+        <v>0.03224085825174956</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1791041817835755</v>
+        <v>1.736419813555784</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.03224085825174956</v>
+        <v>1.629353410335508</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.676158142194216</v>
+        <v>3.849412365705333</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.629353410335508</v>
+        <v>2.491414794187218e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.849412365705333</v>
+        <v>65715917.07347129</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.491414794187218e-15</v>
+        <v>1.740832356378366e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>65715917.07347129</v>
+        <v>10.75937847881687</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.740832356378366e-06</v>
+        <v>0.0001637789194471167</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>10.75937847881687</v>
+        <v>10.81140431160396</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001637789194471167</v>
+        <v>1.127154961454743</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.81140431160396</v>
+        <v>0.01914353863908448</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.127154961454743</v>
+        <v>2.662559921399518</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01914353863908448</v>
+        <v>0.9505184010698707</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.662559921399518</v>
+        <v>1.768311331933059</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9505184010698707</v>
+        <v>15</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.768311331933059</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1679613397463497</v>
       </c>
     </row>
@@ -9268,72 +9046,66 @@
         <v>2.756520451302435e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.3604929654377072</v>
+        <v>9.251526516095799e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.178705257068426</v>
+        <v>2.873825644956278e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>9.251526516095799e-07</v>
+        <v>0.0134123191021313</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.873825644956278e-06</v>
+        <v>0.1826038636878004</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.0134123191021313</v>
+        <v>0.03352405531209892</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1826038636878004</v>
+        <v>1.72852685745563</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03352405531209892</v>
+        <v>1.615049512641885</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.669997672963395</v>
+        <v>3.84411289125051</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.615049512641885</v>
+        <v>2.498288832674919e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.84411289125051</v>
+        <v>67194896.81578778</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.498288832674919e-15</v>
+        <v>1.705440565834053e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>67194896.81578778</v>
+        <v>11.2801592109479</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.705440565834053e-06</v>
+        <v>0.0001574043514377933</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>11.2801592109479</v>
+        <v>10.3119072642651</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001574043514377933</v>
+        <v>1.147208401551588</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.3119072642651</v>
+        <v>0.01673765961859393</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.147208401551588</v>
+        <v>2.674782737975367</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01673765961859393</v>
+        <v>0.9497893705687367</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.674782737975367</v>
+        <v>1.764425234871433</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9497893705687367</v>
+        <v>28</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.764425234871433</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1719140668039817</v>
       </c>
     </row>
@@ -9710,7 +9482,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.37249834349633</v>
+        <v>1.392328862019171</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.771982052867724</v>
@@ -9799,7 +9571,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.376100192040465</v>
+        <v>1.397268602267192</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.782645375681373</v>
@@ -9888,7 +9660,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.380726410132936</v>
+        <v>1.399932085328413</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.781262895513817</v>
@@ -9977,7 +9749,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.351656774013221</v>
+        <v>1.360588419516434</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.75288447244989</v>
@@ -10066,7 +9838,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.345880940387894</v>
+        <v>1.356152696925871</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.616628510051757</v>
@@ -10155,7 +9927,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.344740054509427</v>
+        <v>1.355775094175131</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.638260545036672</v>
@@ -10244,7 +10016,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.344824923957358</v>
+        <v>1.35302995917859</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.611107915531246</v>
@@ -10333,7 +10105,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.34321516154597</v>
+        <v>1.353615781825886</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.604053310585001</v>
@@ -10422,7 +10194,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.342506515845615</v>
+        <v>1.35486242970918</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.610906539147682</v>
@@ -10511,7 +10283,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.340520211090366</v>
+        <v>1.347539471028067</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.594956350412614</v>
@@ -10600,7 +10372,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.348626010855474</v>
+        <v>1.35009975549228</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.570313768338219</v>
@@ -10689,7 +10461,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.334502189623618</v>
+        <v>1.329606150506681</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.579816321443898</v>
@@ -10778,7 +10550,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.364069646680201</v>
+        <v>1.34450628405371</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.54763748968139</v>
@@ -10867,7 +10639,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.435541122116194</v>
+        <v>1.39311318767938</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.641635803102642</v>
@@ -10956,7 +10728,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.398589389966615</v>
+        <v>1.363767727046999</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.652451058580988</v>
@@ -11045,7 +10817,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.399276740692866</v>
+        <v>1.366773642756711</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.654583598753461</v>
@@ -11134,7 +10906,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.3923013586703</v>
+        <v>1.359421477713107</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.670829265841923</v>
@@ -11223,7 +10995,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.389589107544329</v>
+        <v>1.356639620837361</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.662513448938588</v>
@@ -11312,7 +11084,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.452841727819129</v>
+        <v>1.412765452581471</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.863309313577102</v>
@@ -11401,7 +11173,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.453075911665089</v>
+        <v>1.412718480215422</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.915125928963664</v>
@@ -11490,7 +11262,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.447865074163144</v>
+        <v>1.406102277175596</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.91789598763968</v>
@@ -11579,7 +11351,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.445075509514291</v>
+        <v>1.400019105294589</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.946164901206643</v>
@@ -11668,7 +11440,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.441363831577344</v>
+        <v>1.394542434074505</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.947841202935418</v>
@@ -11757,7 +11529,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.436772418255232</v>
+        <v>1.388121687340688</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.945103798262098</v>
@@ -11846,7 +11618,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.433954162330968</v>
+        <v>1.38375174749512</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.949576103507092</v>
@@ -11935,7 +11707,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.433469546498474</v>
+        <v>1.384676194565534</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.922452667932283</v>
@@ -12024,7 +11796,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.421352721055694</v>
+        <v>1.378982493638612</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.96689189341836</v>
@@ -12113,7 +11885,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.45632313578478</v>
+        <v>1.406778991590073</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.020287909034693</v>
@@ -12202,7 +11974,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.419690765270596</v>
+        <v>1.393751134690192</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.982051844576692</v>
@@ -12291,7 +12063,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.422303949464577</v>
+        <v>1.396683538472302</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.075491054894752</v>
@@ -12380,7 +12152,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.416836735711074</v>
+        <v>1.391301113196166</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.014963260949404</v>
@@ -12469,7 +12241,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.418348466775608</v>
+        <v>1.391182746213137</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.946812271980102</v>
@@ -12558,7 +12330,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.401322507371593</v>
+        <v>1.3590060336142</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.900739938503655</v>
@@ -12647,7 +12419,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.40634630859853</v>
+        <v>1.364177567015794</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.87620150316541</v>
@@ -12736,7 +12508,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.416791614396338</v>
+        <v>1.372801356540607</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.8733985149476</v>
@@ -12825,7 +12597,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.419915159766138</v>
+        <v>1.375522120936206</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.900694904706857</v>
@@ -12914,7 +12686,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.419700811693921</v>
+        <v>1.38076039904635</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.882981077334876</v>
@@ -13003,7 +12775,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.420009523847985</v>
+        <v>1.38213279392007</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.882454315348057</v>
@@ -13092,7 +12864,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.421715495730045</v>
+        <v>1.386178567976279</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.873864573795394</v>
@@ -13181,7 +12953,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.410601679759475</v>
+        <v>1.386294971635975</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.919174583246425</v>
@@ -13270,7 +13042,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.412861548314549</v>
+        <v>1.38967320563028</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.935453378296766</v>
@@ -13359,7 +13131,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.440612553255072</v>
+        <v>1.411543067316629</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.910146169556721</v>
@@ -13448,7 +13220,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.45818998637016</v>
+        <v>1.426732794175582</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.80637304833565</v>
@@ -13537,7 +13309,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.453169052736344</v>
+        <v>1.420079778274229</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.815278693589237</v>
@@ -13626,7 +13398,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.457165429247128</v>
+        <v>1.422776730656889</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.821118693085438</v>
@@ -13715,7 +13487,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.458488859810716</v>
+        <v>1.421892598062186</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.80383382802522</v>
@@ -13804,7 +13576,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.468761257720552</v>
+        <v>1.430016985038409</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.823318484127135</v>
@@ -13893,7 +13665,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.551293673128541</v>
+        <v>1.527746361833897</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.928191337094917</v>
@@ -13982,7 +13754,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.558099271022402</v>
+        <v>1.530598619989289</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.956494656511381</v>
@@ -14071,7 +13843,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.55645998299659</v>
+        <v>1.529209708228752</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.958813064142722</v>
@@ -14160,7 +13932,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.549536475862801</v>
+        <v>1.521996699308118</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.979067798724902</v>
@@ -14249,7 +14021,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.579503981015458</v>
+        <v>1.565425000057031</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.065185146674406</v>
@@ -14338,7 +14110,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.567230691848256</v>
+        <v>1.552281576241654</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.112107895692245</v>
@@ -14427,7 +14199,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.594402764536585</v>
+        <v>1.564750085779557</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.104803813332498</v>
@@ -14516,7 +14288,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.620842574714777</v>
+        <v>1.580989662380846</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.309326234617591</v>
@@ -14605,7 +14377,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.631349583199566</v>
+        <v>1.591880510395955</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.230485412322773</v>
@@ -14694,7 +14466,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.623800095715394</v>
+        <v>1.5864386452289</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.269706033882859</v>
@@ -14783,7 +14555,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.628243109489063</v>
+        <v>1.592175726005432</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.340608754709295</v>
@@ -14872,7 +14644,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.631546786410065</v>
+        <v>1.593168255885971</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.257481260092432</v>
@@ -14961,7 +14733,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.623639905897195</v>
+        <v>1.590721847648952</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.270831017153251</v>
@@ -15050,7 +14822,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.626187065769333</v>
+        <v>1.596405428290383</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.407366770047837</v>
@@ -15139,7 +14911,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.627725251420141</v>
+        <v>1.593662863398202</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.300406375461225</v>
@@ -15228,7 +15000,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.625558822485826</v>
+        <v>1.590879605520893</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.307057123246508</v>
@@ -15317,7 +15089,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.630879880622942</v>
+        <v>1.598822060327888</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.260638503218918</v>
@@ -15406,7 +15178,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.639330330794951</v>
+        <v>1.602265125551285</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.372080170840181</v>
@@ -15495,7 +15267,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.67487156774468</v>
+        <v>1.62654003419665</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.180994804972934</v>
@@ -15584,7 +15356,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.650965292127787</v>
+        <v>1.587516413958712</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.938990519988085</v>
@@ -15673,7 +15445,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.684444893097125</v>
+        <v>1.626845223576291</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.59641487297122</v>
@@ -15762,7 +15534,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.702488929649169</v>
+        <v>1.647949120908937</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.33043851351291</v>
@@ -15851,7 +15623,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.701265480419976</v>
+        <v>1.648405952325805</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.186116815509796</v>
@@ -15940,7 +15712,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.696930322968542</v>
+        <v>1.647461769167638</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.785839820170423</v>
@@ -16029,7 +15801,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.706068602806196</v>
+        <v>1.63993728785665</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.05615276611048</v>
@@ -16118,7 +15890,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.706758073639781</v>
+        <v>1.638048484729623</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.93267801713977</v>
@@ -16207,7 +15979,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.693128948195935</v>
+        <v>1.626276962826319</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.250573972308616</v>
@@ -16296,7 +16068,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.687883289302857</v>
+        <v>1.618979454041151</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.883033979766928</v>
@@ -16385,7 +16157,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.695459137589376</v>
+        <v>1.627720935750235</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.866090853091863</v>
@@ -16474,7 +16246,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.692039395561779</v>
+        <v>1.63014548149904</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.196214085285951</v>
@@ -16563,7 +16335,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.698114619152707</v>
+        <v>1.642269633779923</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.070277103528066</v>
@@ -16652,7 +16424,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.691364801769369</v>
+        <v>1.639015957078799</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.951829118160112</v>
@@ -16741,7 +16513,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.677379462480553</v>
+        <v>1.628991189848554</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.896323859903246</v>
@@ -16830,7 +16602,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.658270654104201</v>
+        <v>1.613024706580708</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.9037686319286</v>
@@ -17116,7 +16888,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.43933220904186</v>
+        <v>1.439857309119477</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.935400406332388</v>
@@ -17205,7 +16977,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.433582934970333</v>
+        <v>1.436747372360607</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.927679705506433</v>
@@ -17294,7 +17066,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.423802592007222</v>
+        <v>1.428312279313525</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.942054158739901</v>
@@ -17383,7 +17155,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.305345696246846</v>
+        <v>1.2873707851422</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.45981166862982</v>
@@ -17472,7 +17244,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.226260211202746</v>
+        <v>1.221256483140732</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.423527707321598</v>
@@ -17561,7 +17333,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.213493558429231</v>
+        <v>1.209323558360607</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.421645335286716</v>
@@ -17650,7 +17422,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.212786615880068</v>
+        <v>1.205498453647463</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.413146785126611</v>
@@ -17739,7 +17511,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.208780457143663</v>
+        <v>1.201313735976245</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.407231192645874</v>
@@ -17828,7 +17600,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.209696836450366</v>
+        <v>1.202357271656351</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.407776465636102</v>
@@ -17917,7 +17689,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.201650500534815</v>
+        <v>1.19358497412721</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.399148955960075</v>
@@ -18006,7 +17778,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.201704009396274</v>
+        <v>1.191553039985975</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.392229315119099</v>
@@ -18095,7 +17867,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.182617684975534</v>
+        <v>1.166813326302472</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.378806783025885</v>
@@ -18184,7 +17956,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.186693249906341</v>
+        <v>1.167647892037161</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.370376033434719</v>
@@ -18273,7 +18045,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.227898381374387</v>
+        <v>1.202224194213304</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.401334291566882</v>
@@ -18362,7 +18134,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.219188618703278</v>
+        <v>1.194891860093403</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.404223947676581</v>
@@ -18451,7 +18223,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.220972976224154</v>
+        <v>1.198118821148184</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.404329419824377</v>
@@ -18540,7 +18312,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.225933206580691</v>
+        <v>1.202747659549065</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.411716115783402</v>
@@ -18629,7 +18401,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.231544390934612</v>
+        <v>1.206644853779765</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.406874897842701</v>
@@ -18718,7 +18490,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.388000845973465</v>
+        <v>1.348336539595238</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.771851397156108</v>
@@ -18807,7 +18579,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.449554989958442</v>
+        <v>1.399904432584135</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.094079838678922</v>
@@ -18896,7 +18668,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.447653431476824</v>
+        <v>1.397048210084784</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.93710485981273</v>
@@ -18985,7 +18757,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.441352814223832</v>
+        <v>1.390069165133589</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.960279043406595</v>
@@ -19074,7 +18846,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.436456702829347</v>
+        <v>1.383806247709362</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.959796526364259</v>
@@ -19163,7 +18935,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.428027612086918</v>
+        <v>1.376130116192222</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.971221332015766</v>
@@ -19252,7 +19024,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.428495681235262</v>
+        <v>1.372760608173703</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.964696088843715</v>
@@ -19341,7 +19113,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.428662422229428</v>
+        <v>1.376031995387212</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.950661691465481</v>
@@ -19430,7 +19202,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.441431717525898</v>
+        <v>1.395967566449373</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.037977266010187</v>
@@ -19519,7 +19291,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.482392913354062</v>
+        <v>1.428515806764535</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.018543857655389</v>
@@ -19608,7 +19380,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.463205972688004</v>
+        <v>1.433665390419559</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.093974366347227</v>
@@ -19697,7 +19469,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.459554735916399</v>
+        <v>1.436215270312307</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.24823739931859</v>
@@ -19786,7 +19558,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.454942524731416</v>
+        <v>1.434441251057162</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.189404511705092</v>
@@ -19875,7 +19647,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.464894871130765</v>
+        <v>1.441843403283114</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.097155189079888</v>
@@ -19964,7 +19736,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.440363030642051</v>
+        <v>1.402546091448849</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.964046850780756</v>
@@ -20053,7 +19825,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.444507896164217</v>
+        <v>1.404716106909169</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.918198042478348</v>
@@ -20142,7 +19914,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.458188884755035</v>
+        <v>1.414203697448391</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.920061573101415</v>
@@ -20231,7 +20003,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.469071537625561</v>
+        <v>1.420015407715493</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.964126771991448</v>
@@ -20320,7 +20092,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.472892490421492</v>
+        <v>1.429097877619216</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.940699025579669</v>
@@ -20409,7 +20181,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.473820219170387</v>
+        <v>1.430873211681073</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.934254945678331</v>
@@ -20498,7 +20270,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.481518649525463</v>
+        <v>1.438477189478492</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.92333268220394</v>
@@ -20587,7 +20359,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.470786428887332</v>
+        <v>1.445062184946613</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.992257188638931</v>
@@ -20676,7 +20448,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.46915481082702</v>
+        <v>1.444885989877686</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.010718997486034</v>
@@ -20765,7 +20537,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.474671323591177</v>
+        <v>1.446847091948598</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.959394742422245</v>
@@ -20854,7 +20626,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.486285277584666</v>
+        <v>1.458928158986253</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.896625306989378</v>
@@ -20943,7 +20715,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.480830272721176</v>
+        <v>1.448909091739667</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.86827342684877</v>
@@ -21032,7 +20804,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.483761781527316</v>
+        <v>1.448831062375981</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.858862341762491</v>
@@ -21121,7 +20893,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.485844204912266</v>
+        <v>1.448238067873616</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.852379309574055</v>
@@ -21210,7 +20982,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.490286075616974</v>
+        <v>1.452079886845078</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.882175478435718</v>
@@ -21299,7 +21071,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.569282478841298</v>
+        <v>1.543795903855759</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.008672099828591</v>
@@ -21388,7 +21160,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.567158551259241</v>
+        <v>1.542393161491934</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.010003764040124</v>
@@ -21477,7 +21249,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.559397426901099</v>
+        <v>1.538937928791782</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.971760991773922</v>
@@ -21566,7 +21338,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.580301312491674</v>
+        <v>1.566756086686688</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.109160567158851</v>
@@ -21655,7 +21427,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.626226904790543</v>
+        <v>1.626522561058415</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.188828326613077</v>
@@ -21744,7 +21516,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.607212065967611</v>
+        <v>1.608189490479467</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.221587523280944</v>
@@ -21833,7 +21605,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.634058968291207</v>
+        <v>1.624130894458031</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.19444955283735</v>
@@ -21922,7 +21694,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.64956734649837</v>
+        <v>1.629175041274682</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.412379732221666</v>
@@ -22011,7 +21783,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.65995021665719</v>
+        <v>1.641306047748199</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.363488421173332</v>
@@ -22100,7 +21872,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.662305773156936</v>
+        <v>1.641230428680843</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.408342242551624</v>
@@ -22189,7 +21961,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.675420914336607</v>
+        <v>1.654113057650646</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.341782184396223</v>
@@ -22278,7 +22050,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.679109456096509</v>
+        <v>1.6563869971902</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.368514163898717</v>
@@ -22367,7 +22139,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.683217805575472</v>
+        <v>1.661785526091079</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.369016857428821</v>
@@ -22456,7 +22228,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.686158341720273</v>
+        <v>1.664793894787072</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.421871962400244</v>
@@ -22545,7 +22317,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.691273400465604</v>
+        <v>1.665900856425703</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.415411838937179</v>
@@ -22634,7 +22406,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.687160994187468</v>
+        <v>1.66166747500321</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.462178168592575</v>
@@ -22723,7 +22495,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.694700905394943</v>
+        <v>1.670198113919482</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.374104565019962</v>
@@ -22812,7 +22584,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.703243577541149</v>
+        <v>1.67344636885914</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.288965190312196</v>
@@ -22901,7 +22673,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.720466645982816</v>
+        <v>1.678462510127966</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.857646080907092</v>
@@ -22990,7 +22762,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.669666969120163</v>
+        <v>1.607679714152931</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.931139560111419</v>
@@ -23079,7 +22851,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.706437381762216</v>
+        <v>1.641390112704295</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.61389268571182</v>
@@ -23168,7 +22940,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.721592868050884</v>
+        <v>1.660118468117778</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.988043237313473</v>
@@ -23257,7 +23029,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.721082080239587</v>
+        <v>1.660548415352689</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.089073612839209</v>
@@ -23346,7 +23118,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.720127338790909</v>
+        <v>1.659824927662405</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.313654599187788</v>
@@ -23435,7 +23207,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.716452880605384</v>
+        <v>1.644617836751257</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.097818660126767</v>
@@ -23524,7 +23296,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.710712824292358</v>
+        <v>1.632722192709037</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.437685387866442</v>
@@ -23613,7 +23385,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.68312126931142</v>
+        <v>1.615551432146237</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.114329101285032</v>
@@ -23702,7 +23474,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.683099568956371</v>
+        <v>1.609480094418783</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.109848062920999</v>
@@ -23791,7 +23563,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.672444199478707</v>
+        <v>1.60375931025461</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.295758752321736</v>
@@ -23880,7 +23652,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.665660019011086</v>
+        <v>1.607890856007902</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.194331756107585</v>
@@ -23969,7 +23741,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.68501252509616</v>
+        <v>1.633487326408389</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.343046660792409</v>
@@ -24058,7 +23830,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.673875124862172</v>
+        <v>1.624835089159059</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.320000692411694</v>
@@ -24147,7 +23919,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.669434287245563</v>
+        <v>1.618411215567334</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.241603227770272</v>
@@ -24236,7 +24008,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.673304511394681</v>
+        <v>1.617364403548531</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.331357323377282</v>
@@ -24522,7 +24294,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.560007389241718</v>
+        <v>1.59920180330152</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.927572997893501</v>
@@ -24611,7 +24383,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.559945936994323</v>
+        <v>1.602221387355767</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.931628138743305</v>
@@ -24700,7 +24472,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.560602202648922</v>
+        <v>1.601622113361532</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.927484862305315</v>
@@ -24789,7 +24561,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.494039969211372</v>
+        <v>1.525741818481805</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.931779794691356</v>
@@ -24878,7 +24650,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.470221172546311</v>
+        <v>1.509606915329221</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.765514049677043</v>
@@ -24967,7 +24739,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.450636221367544</v>
+        <v>1.486679804994575</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.810132540538961</v>
@@ -25056,7 +24828,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.432535624413471</v>
+        <v>1.465043757776366</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.765379460416892</v>
@@ -25145,7 +24917,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.412927672723241</v>
+        <v>1.443347430736925</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.746741581785522</v>
@@ -25234,7 +25006,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.413328686610239</v>
+        <v>1.444412862948424</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.748970160427103</v>
@@ -25323,7 +25095,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.391666434229836</v>
+        <v>1.421400267715191</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.740821218949687</v>
@@ -25412,7 +25184,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.371432465909706</v>
+        <v>1.395580522385523</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.68504761737337</v>
@@ -25501,7 +25273,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.325875314527027</v>
+        <v>1.338851167358156</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.6661827599409</v>
@@ -25590,7 +25362,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.35524126017079</v>
+        <v>1.359385427398843</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.621481125755742</v>
@@ -25679,7 +25451,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.433612971404581</v>
+        <v>1.40275341169759</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.750349538942652</v>
@@ -25768,7 +25540,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.399729987928782</v>
+        <v>1.380603995064971</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.764341982004114</v>
@@ -25857,7 +25629,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.402470271993504</v>
+        <v>1.384520982344101</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.75777248009206</v>
@@ -25946,7 +25718,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.397125496817188</v>
+        <v>1.377590031806667</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.782508111288293</v>
@@ -26035,7 +25807,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.392119474252765</v>
+        <v>1.373611941740075</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.792696075333134</v>
@@ -26124,7 +25896,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.476523260060602</v>
+        <v>1.447635452998568</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.947411229885277</v>
@@ -26213,7 +25985,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.480175063416915</v>
+        <v>1.44956930303934</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.871844208535017</v>
@@ -26302,7 +26074,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.474752356307968</v>
+        <v>1.443591158598504</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.907208192063425</v>
@@ -26391,7 +26163,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.466692594338679</v>
+        <v>1.431106503862981</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.923363725765734</v>
@@ -26480,7 +26252,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.46140587924945</v>
+        <v>1.425434667911565</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.915072500480581</v>
@@ -26569,7 +26341,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.456146259902273</v>
+        <v>1.419117191039878</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.922439734799146</v>
@@ -26658,7 +26430,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.450519356248119</v>
+        <v>1.410974921053859</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.917351655096849</v>
@@ -26747,7 +26519,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.449549630433878</v>
+        <v>1.410432253735767</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.910240478725273</v>
@@ -26836,7 +26608,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.46437268242286</v>
+        <v>1.430422270979686</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.938051084297266</v>
@@ -26925,7 +26697,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.513208759269153</v>
+        <v>1.465584469291993</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.952317214902384</v>
@@ -27014,7 +26786,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.518394665885113</v>
+        <v>1.493358828616404</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.114308671527004</v>
@@ -27103,7 +26875,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.518851657896781</v>
+        <v>1.493003215190898</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.276255114899229</v>
@@ -27192,7 +26964,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.521662808587334</v>
+        <v>1.494320028257714</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.1943906431488</v>
@@ -27281,7 +27053,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.5359955780777</v>
+        <v>1.505585343393759</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.117361427366212</v>
@@ -27370,7 +27142,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.486667712480234</v>
+        <v>1.44114440413579</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.895908578037169</v>
@@ -27459,7 +27231,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.494735283602963</v>
+        <v>1.450011187989104</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.867261253696375</v>
@@ -27548,7 +27320,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.510455346882452</v>
+        <v>1.462410530580884</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.87649829034147</v>
@@ -27637,7 +27409,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.516886905190094</v>
+        <v>1.467543187254588</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.897993266502003</v>
@@ -27726,7 +27498,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517885762286679</v>
+        <v>1.472969914006814</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.875308502258519</v>
@@ -27815,7 +27587,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.519160644946066</v>
+        <v>1.476260565420281</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.886975506911164</v>
@@ -27904,7 +27676,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531146594812792</v>
+        <v>1.486701522164349</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.872462623313621</v>
@@ -27993,7 +27765,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.547399822447039</v>
+        <v>1.512715776453977</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.938852415703609</v>
@@ -28082,7 +27854,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.545110652854427</v>
+        <v>1.511505795207374</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.933908046665695</v>
@@ -28171,7 +27943,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549324591157646</v>
+        <v>1.507550312297345</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.856649239480831</v>
@@ -28260,7 +28032,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551142596129943</v>
+        <v>1.511436642605236</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.872668437367098</v>
@@ -28349,7 +28121,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.533271594577349</v>
+        <v>1.492296495862933</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.813174523422124</v>
@@ -28438,7 +28210,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.536843374098103</v>
+        <v>1.4956440301746</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.803580065716787</v>
@@ -28527,7 +28299,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.532817781770156</v>
+        <v>1.490127341134906</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.794352785465001</v>
@@ -28616,7 +28388,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.538940277572251</v>
+        <v>1.49326745828151</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.804625152963059</v>
@@ -28705,7 +28477,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.68059544949506</v>
+        <v>1.644292388684792</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.388788814333545</v>
@@ -28794,7 +28566,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.679963045208974</v>
+        <v>1.639870536389969</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.529185387850227</v>
@@ -28883,7 +28655,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.678969416852248</v>
+        <v>1.645767975707853</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.462048228902395</v>
@@ -28972,7 +28744,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.712125683160483</v>
+        <v>1.687157866830256</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.388524475171968</v>
@@ -29061,7 +28833,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.767947018710722</v>
+        <v>1.746975850637517</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.592444387746601</v>
@@ -29150,7 +28922,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.768114444556873</v>
+        <v>1.737609547096598</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.677381204560805</v>
@@ -29239,7 +29011,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.764746231796666</v>
+        <v>1.723088540478165</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.266796306950983</v>
@@ -29328,7 +29100,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.759526368416269</v>
+        <v>1.716475535557213</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.39173691056774</v>
@@ -29417,7 +29189,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.772971368946232</v>
+        <v>1.732119676215913</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.479376344627612</v>
@@ -29506,7 +29278,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.766102847867612</v>
+        <v>1.729662545895447</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.52249710235671</v>
@@ -29595,7 +29367,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.763672816534951</v>
+        <v>1.728640128875462</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.603125234862411</v>
@@ -29684,7 +29456,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.76513381855914</v>
+        <v>1.73107617807907</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.575522181475139</v>
@@ -29773,7 +29545,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.75139983083074</v>
+        <v>1.71660423679594</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.544489326906684</v>
@@ -29862,7 +29634,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.750956256316896</v>
+        <v>1.716666265807479</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.633506545118554</v>
@@ -29951,7 +29723,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.759747727129362</v>
+        <v>1.723258491342049</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.575472147424072</v>
@@ -30040,7 +29812,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.756678677875893</v>
+        <v>1.716851975376036</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.496563639376943</v>
@@ -30129,7 +29901,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.76841376721286</v>
+        <v>1.724992138493823</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.481854113645789</v>
@@ -30218,7 +29990,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.776545695341368</v>
+        <v>1.728488611194163</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.618105629495879</v>
@@ -30307,7 +30079,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.773939121294988</v>
+        <v>1.712977338488227</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.187954339160408</v>
@@ -30396,7 +30168,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.705752191416179</v>
+        <v>1.630766799667158</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.970128831928077</v>
@@ -30485,7 +30257,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.726926182092692</v>
+        <v>1.662786339198544</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.804964674405828</v>
@@ -30574,7 +30346,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.7357381210945</v>
+        <v>1.68021468324529</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.403183607554078</v>
@@ -30663,7 +30435,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.739748642027946</v>
+        <v>1.687336949668974</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.175712829191339</v>
@@ -30752,7 +30524,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.743065074000652</v>
+        <v>1.6888093132823</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.212067925246169</v>
@@ -30841,7 +30613,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.747927538430507</v>
+        <v>1.679101544352293</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.514687169348776</v>
@@ -30930,7 +30702,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.749542154372064</v>
+        <v>1.678715596406967</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.984242292843743</v>
@@ -31019,7 +30791,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.742123662314271</v>
+        <v>1.67446010730588</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.318269285349766</v>
@@ -31108,7 +30880,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.73012668767178</v>
+        <v>1.669677765331887</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.782736494678943</v>
@@ -31197,7 +30969,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.737677146186666</v>
+        <v>1.675260428304646</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.856912471488988</v>
@@ -31286,7 +31058,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.728993552638957</v>
+        <v>1.666974160453636</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.884868083357611</v>
@@ -31375,7 +31147,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.731724327157907</v>
+        <v>1.676277628889758</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.873447843850617</v>
@@ -31464,7 +31236,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.723927104591398</v>
+        <v>1.673953182658446</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.939785283088967</v>
@@ -31553,7 +31325,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.726790041124611</v>
+        <v>1.668543127669674</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.583971521091516</v>
@@ -31642,7 +31414,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.727604884037736</v>
+        <v>1.667230516762956</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.127718327359192</v>
@@ -31928,7 +31700,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.71563138639803</v>
+        <v>1.709193496893485</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.191176605105566</v>
@@ -32017,7 +31789,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.7069821199558</v>
+        <v>1.703076516997906</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.201986877603439</v>
@@ -32106,7 +31878,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.706806415396752</v>
+        <v>1.703126410800071</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.185409162535422</v>
@@ -32195,7 +31967,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.58149530623839</v>
+        <v>1.581877733422317</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.793167695061264</v>
@@ -32284,7 +32056,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.494592685604011</v>
+        <v>1.509573818846709</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.712154338903048</v>
@@ -32373,7 +32145,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.470935135308389</v>
+        <v>1.484583149260472</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.681385464234171</v>
@@ -32462,7 +32234,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.448246692935146</v>
+        <v>1.457230994444339</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.654980371198228</v>
@@ -32551,7 +32323,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.440071312221983</v>
+        <v>1.448623565741577</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.625779421735269</v>
@@ -32640,7 +32412,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.445008670908729</v>
+        <v>1.455302796444753</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.633679906088608</v>
@@ -32729,7 +32501,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.418151816002954</v>
+        <v>1.422005811758311</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.595274656816485</v>
@@ -32818,7 +32590,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.417669630105002</v>
+        <v>1.415715521154211</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.56974374188237</v>
@@ -32907,7 +32679,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.357354900210152</v>
+        <v>1.340369154951906</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.520913138927626</v>
@@ -32996,7 +32768,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.353666366322707</v>
+        <v>1.337078977333326</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.518606352860917</v>
@@ -33085,7 +32857,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.411766390998247</v>
+        <v>1.391182088972845</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.566753859421509</v>
@@ -33174,7 +32946,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.422502046001335</v>
+        <v>1.405719564717378</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.592059244443633</v>
@@ -33263,7 +33035,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.439101634811301</v>
+        <v>1.427093557044324</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.613835411043405</v>
@@ -33352,7 +33124,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.452488686206278</v>
+        <v>1.438028447944296</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.627962331540006</v>
@@ -33441,7 +33213,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.467105520360713</v>
+        <v>1.456076307205299</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.638361294444276</v>
@@ -33530,7 +33302,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.650269821828428</v>
+        <v>1.618725940371142</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.636763500647644</v>
@@ -33619,7 +33391,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.694602587183884</v>
+        <v>1.653454874226888</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.527560504420467</v>
@@ -33708,7 +33480,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.683366349638391</v>
+        <v>1.643844851224354</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.858132542280314</v>
@@ -33797,7 +33569,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.675387031714759</v>
+        <v>1.637865251673762</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.850771214461436</v>
@@ -33886,7 +33658,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.675095653666851</v>
+        <v>1.638195688906618</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.818381201814394</v>
@@ -33975,7 +33747,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.666427342662161</v>
+        <v>1.628880032177129</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.745011702064992</v>
@@ -34064,7 +33836,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.663089081953476</v>
+        <v>1.621944421919262</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.913909524958316</v>
@@ -34153,7 +33925,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.6644892450885</v>
+        <v>1.625591056106038</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.95027725046483</v>
@@ -34242,7 +34014,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.722647975643584</v>
+        <v>1.688038862703807</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.683765664447323</v>
@@ -34331,7 +34103,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.729645726874094</v>
+        <v>1.699453385462332</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.59459428921192</v>
@@ -34420,7 +34192,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.716228155048634</v>
+        <v>1.702174507994178</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.421759347724707</v>
@@ -34509,7 +34281,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.698765051278052</v>
+        <v>1.688349467305006</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.397669332600827</v>
@@ -34598,7 +34370,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.690917743025018</v>
+        <v>1.680434054807974</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.413242192495989</v>
@@ -34687,7 +34459,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.695240856720397</v>
+        <v>1.687605524787065</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.402601223015512</v>
@@ -34776,7 +34548,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.680085978296251</v>
+        <v>1.657238036436867</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.371301696030929</v>
@@ -34865,7 +34637,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.674763846407878</v>
+        <v>1.653385425232885</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.313342374437967</v>
@@ -34954,7 +34726,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.668668598825613</v>
+        <v>1.64904474566191</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.361402605408138</v>
@@ -35043,7 +34815,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.683504645240201</v>
+        <v>1.659408728764195</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.381671838845827</v>
@@ -35132,7 +34904,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.688395803764129</v>
+        <v>1.666269135373941</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.353269086746453</v>
@@ -35221,7 +34993,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.687015832244388</v>
+        <v>1.6653821108056</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.342485798073169</v>
@@ -35310,7 +35082,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.698506107985589</v>
+        <v>1.677774075306497</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.432196885908406</v>
@@ -35399,7 +35171,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.705795654375698</v>
+        <v>1.698795807627221</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.429191585725788</v>
@@ -35488,7 +35260,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.700096346509045</v>
+        <v>1.697983688454772</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.377882208111552</v>
@@ -35577,7 +35349,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.676027169754928</v>
+        <v>1.664380196186648</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.231071224699128</v>
@@ -35666,7 +35438,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.6829958628632</v>
+        <v>1.66780636669421</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.362096951497061</v>
@@ -35755,7 +35527,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667261559256446</v>
+        <v>1.649382862218496</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.138943820923267</v>
@@ -35844,7 +35616,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.656365751210745</v>
+        <v>1.63586610430388</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.111254468516737</v>
@@ -35933,7 +35705,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.65067940273383</v>
+        <v>1.629115847847417</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.117851711502601</v>
@@ -36022,7 +35794,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.654862653585506</v>
+        <v>1.632846300803757</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.136921672155959</v>
@@ -36111,7 +35883,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.677231226472046</v>
+        <v>1.666873062366009</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.129852803871232</v>
@@ -36200,7 +35972,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.671416260787617</v>
+        <v>1.658193394915271</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.112823105250059</v>
@@ -36289,7 +36061,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.669263223171597</v>
+        <v>1.655013338141335</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.058410021285027</v>
@@ -36378,7 +36150,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.706756060851208</v>
+        <v>1.692791794416591</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.222498330331802</v>
@@ -36467,7 +36239,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.770265313821044</v>
+        <v>1.765034579619581</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.418179949699725</v>
@@ -36556,7 +36328,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.774268665370326</v>
+        <v>1.771981999919298</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.442554411987519</v>
@@ -36645,7 +36417,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.778562768845052</v>
+        <v>1.774966403581804</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.360046474063891</v>
@@ -36734,7 +36506,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.774105968645641</v>
+        <v>1.762525413494343</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.608107822831046</v>
@@ -36823,7 +36595,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.780361707461915</v>
+        <v>1.767138807347074</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.731260748768441</v>
@@ -36912,7 +36684,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.776849043972784</v>
+        <v>1.763313629405584</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.751350650571661</v>
@@ -37001,7 +36773,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.783110512398658</v>
+        <v>1.770509699790108</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.671433208768551</v>
@@ -37090,7 +36862,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.78727382354889</v>
+        <v>1.773373161163618</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.778687096289523</v>
@@ -37179,7 +36951,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.805941877441973</v>
+        <v>1.790133246506885</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.7243410041602</v>
@@ -37268,7 +37040,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.803587171183004</v>
+        <v>1.787350702155051</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.699819920709272</v>
@@ -37357,7 +37129,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.808892220623353</v>
+        <v>1.788249426486659</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.769982822367167</v>
@@ -37446,7 +37218,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.79795647965947</v>
+        <v>1.77850388443855</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.648937223616647</v>
@@ -37535,7 +37307,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.801587080121341</v>
+        <v>1.784281329890517</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.736328574517803</v>
@@ -37624,7 +37396,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.80821064980274</v>
+        <v>1.785465067066723</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.66147222456555</v>
@@ -37713,7 +37485,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.804139841511975</v>
+        <v>1.784399506954537</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.48368524374317</v>
@@ -37802,7 +37574,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.71644024815474</v>
+        <v>1.679684851750327</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.539642528026622</v>
@@ -37891,7 +37663,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.712498669090457</v>
+        <v>1.673317134472947</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.065843793303222</v>
@@ -37980,7 +37752,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.721226449933815</v>
+        <v>1.685223949580087</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.938071873329977</v>
@@ -38069,7 +37841,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.729056759114119</v>
+        <v>1.69395151588841</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.937203376570964</v>
@@ -38158,7 +37930,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.734278477704141</v>
+        <v>1.70291972562408</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.84973132573006</v>
@@ -38247,7 +38019,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.740085081018075</v>
+        <v>1.699342875139044</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.98106957623974</v>
@@ -38336,7 +38108,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.745869771221528</v>
+        <v>1.69826326461938</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.109783918021589</v>
@@ -38425,7 +38197,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.718994078485359</v>
+        <v>1.678341593815663</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.110141772814528</v>
@@ -38514,7 +38286,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.714760829858756</v>
+        <v>1.675460749536378</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.085511298321262</v>
@@ -38603,7 +38375,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.716685088021759</v>
+        <v>1.680871399262456</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.970797419908436</v>
@@ -38692,7 +38464,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.710562855293535</v>
+        <v>1.676875519338359</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.108701517407637</v>
@@ -38781,7 +38553,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.732767581312557</v>
+        <v>1.702942534558088</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.930648732794037</v>
@@ -38870,7 +38642,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.720446238851786</v>
+        <v>1.694462193971934</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.034861368072393</v>
@@ -38959,7 +38731,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.717348928795428</v>
+        <v>1.697885340657333</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.039490405820928</v>
@@ -39048,7 +38820,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.726504049155841</v>
+        <v>1.698054760179625</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.885598484155269</v>
@@ -39334,7 +39106,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.38160726345809</v>
+        <v>1.391456396197007</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.654519152556719</v>
@@ -39423,7 +39195,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.381448692372838</v>
+        <v>1.392698875400441</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.659051310083498</v>
@@ -39512,7 +39284,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.377193772905145</v>
+        <v>1.386664867939878</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.655846100913855</v>
@@ -39601,7 +39373,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.345020336794534</v>
+        <v>1.345129957783151</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.715016395315646</v>
@@ -39690,7 +39462,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.326914785527825</v>
+        <v>1.332222076293491</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.625311155452632</v>
@@ -39779,7 +39551,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.31940827416294</v>
+        <v>1.323196572890364</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.653245751736086</v>
@@ -39868,7 +39640,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.313894920366074</v>
+        <v>1.312969086686006</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.628563554945356</v>
@@ -39957,7 +39729,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.303449846042105</v>
+        <v>1.302882570101688</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.608061172944871</v>
@@ -40046,7 +39818,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.303150809101141</v>
+        <v>1.303387266869524</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.618325715568215</v>
@@ -40135,7 +39907,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.297455240486524</v>
+        <v>1.292921676231025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.593389555532253</v>
@@ -40224,7 +39996,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.297066808511321</v>
+        <v>1.288474780223538</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.56111139278222</v>
@@ -40313,7 +40085,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.275147263383835</v>
+        <v>1.256071001961475</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.546470355297839</v>
@@ -40402,7 +40174,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.309688481552782</v>
+        <v>1.283024992492739</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.501950166035282</v>
@@ -40491,7 +40263,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.360012856335077</v>
+        <v>1.328049900120285</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.557924335003706</v>
@@ -40580,7 +40352,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.347155810032562</v>
+        <v>1.321921741913497</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.570271275278023</v>
@@ -40669,7 +40441,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.348876225669286</v>
+        <v>1.329257165635078</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.576968045180767</v>
@@ -40758,7 +40530,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.354320729144711</v>
+        <v>1.334245774892082</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.585726582057192</v>
@@ -40847,7 +40619,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.36215302087759</v>
+        <v>1.3426933125058</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.586856130871157</v>
@@ -40936,7 +40708,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.479656492787051</v>
+        <v>1.449313023756421</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.971814243604393</v>
@@ -41025,7 +40797,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.500900788163841</v>
+        <v>1.468146657102067</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.115746821699921</v>
@@ -41114,7 +40886,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.494805051069289</v>
+        <v>1.460527305024284</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.064136929343705</v>
@@ -41203,7 +40975,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.482989834423262</v>
+        <v>1.445513430499062</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.103770256648184</v>
@@ -41292,7 +41064,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.481441902659548</v>
+        <v>1.442614739295487</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.086438693043442</v>
@@ -41381,7 +41153,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.479038349688982</v>
+        <v>1.439892441346122</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.102860201691664</v>
@@ -41470,7 +41242,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.47884227573121</v>
+        <v>1.434280662200491</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.099124089716377</v>
@@ -41559,7 +41331,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.481945539848994</v>
+        <v>1.439066062892709</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.06010970229286</v>
@@ -41648,7 +41420,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.470054010497244</v>
+        <v>1.436066637359701</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.179760986796052</v>
@@ -41737,7 +41509,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.512391907420546</v>
+        <v>1.467961178771626</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.261965947674984</v>
@@ -41826,7 +41598,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.483204379136046</v>
+        <v>1.458554614601385</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.041795872426834</v>
@@ -41915,7 +41687,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.48323963759359</v>
+        <v>1.458078784921147</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.079765512467941</v>
@@ -42004,7 +41776,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.472608003393658</v>
+        <v>1.448466218845761</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.080695931405093</v>
@@ -42093,7 +41865,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.469059540640401</v>
+        <v>1.443302132364137</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.990681168295492</v>
@@ -42182,7 +41954,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.417704266869314</v>
+        <v>1.379125982239448</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.718279557052694</v>
@@ -42271,7 +42043,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.418917189280506</v>
+        <v>1.37898455019935</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.706773705349151</v>
@@ -42360,7 +42132,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.426018165786201</v>
+        <v>1.385099554020707</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.708168681471518</v>
@@ -42449,7 +42221,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.430687113061047</v>
+        <v>1.389928444621567</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.717364437693891</v>
@@ -42538,7 +42310,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.436645431506875</v>
+        <v>1.401270729020629</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.716052888933495</v>
@@ -42627,7 +42399,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.43898200435506</v>
+        <v>1.404381215860526</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.722423718097597</v>
@@ -42716,7 +42488,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.447279807181196</v>
+        <v>1.412385051158572</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.713361595061585</v>
@@ -42805,7 +42577,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.419805677691238</v>
+        <v>1.394144061876899</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.762029208276933</v>
@@ -42894,7 +42666,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.420019824434446</v>
+        <v>1.393038900558848</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.768925659934772</v>
@@ -42983,7 +42755,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.440783903949645</v>
+        <v>1.407913246545877</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.765200494716268</v>
@@ -43072,7 +42844,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.464154043501724</v>
+        <v>1.42999677969473</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.742213207151908</v>
@@ -43161,7 +42933,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.447470828745303</v>
+        <v>1.402451692918727</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.670827037543195</v>
@@ -43250,7 +43022,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.447501606906608</v>
+        <v>1.39801232644061</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.664191726853416</v>
@@ -43339,7 +43111,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.456079267765066</v>
+        <v>1.403068935215813</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.659567609200392</v>
@@ -43428,7 +43200,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.465017716991597</v>
+        <v>1.4096025668807</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.669773835261152</v>
@@ -43517,7 +43289,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.565407731282321</v>
+        <v>1.512533406737635</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.910730240108293</v>
@@ -43606,7 +43378,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.571079385711672</v>
+        <v>1.515786112714672</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.937655970433928</v>
@@ -43695,7 +43467,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.566546191743795</v>
+        <v>1.512369412757729</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.912645209532447</v>
@@ -43784,7 +43556,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.539715371218685</v>
+        <v>1.490379210965114</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.97596560319278</v>
@@ -43873,7 +43645,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.57265570800899</v>
+        <v>1.53855167047131</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.05468275131307</v>
@@ -43962,7 +43734,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.559809692954196</v>
+        <v>1.529271126714046</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.086189071088063</v>
@@ -44051,7 +43823,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.584479326378684</v>
+        <v>1.551325851467994</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.17699204708379</v>
@@ -44140,7 +43912,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.624573013270691</v>
+        <v>1.585734700400662</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.083940741428813</v>
@@ -44229,7 +44001,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.626478307405695</v>
+        <v>1.590763343386077</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.068794825998471</v>
@@ -44318,7 +44090,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.627948516054978</v>
+        <v>1.590724352603146</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.090707745307233</v>
@@ -44407,7 +44179,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.632185080708016</v>
+        <v>1.601139660605899</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.11194333913347</v>
@@ -44496,7 +44268,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.634671084507025</v>
+        <v>1.605340890786064</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.086237494700784</v>
@@ -44585,7 +44357,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.63586956409489</v>
+        <v>1.606901399339356</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.08631898473314</v>
@@ -44674,7 +44446,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.633179891949443</v>
+        <v>1.602352631516143</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.130538284163</v>
@@ -44763,7 +44535,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.632863216249057</v>
+        <v>1.601727620688523</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.109928724447315</v>
@@ -44852,7 +44624,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.633800720775488</v>
+        <v>1.598520040215125</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.116347273844887</v>
@@ -44941,7 +44713,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.640095435807325</v>
+        <v>1.603443885098844</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.059507544614316</v>
@@ -45030,7 +44802,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.642840348037509</v>
+        <v>1.602994725586695</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.114500961926971</v>
@@ -45119,7 +44891,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.696730252399384</v>
+        <v>1.642255336095995</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.363856934534568</v>
@@ -45208,7 +44980,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.66461363334074</v>
+        <v>1.595677687366925</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.277281929822609</v>
@@ -45297,7 +45069,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.707253831538208</v>
+        <v>1.62741871021214</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.745144172892441</v>
@@ -45386,7 +45158,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.728487187217411</v>
+        <v>1.645118871393616</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.244258970466036</v>
@@ -45475,7 +45247,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.732227547868332</v>
+        <v>1.650877605062049</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.306571972849627</v>
@@ -45564,7 +45336,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.735316446908014</v>
+        <v>1.653148232483775</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.185447207596712</v>
@@ -45653,7 +45425,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.727337287019912</v>
+        <v>1.63099093606692</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.990300851299697</v>
@@ -45742,7 +45514,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.713680340361817</v>
+        <v>1.617529664144619</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.972986499271101</v>
@@ -45831,7 +45603,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.704083422744698</v>
+        <v>1.61234408997433</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.192302122069657</v>
@@ -45920,7 +45692,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.699977688077534</v>
+        <v>1.603970087890254</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.01381279888433</v>
@@ -46009,7 +45781,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.701666561533139</v>
+        <v>1.607118897305631</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.186056207524909</v>
@@ -46098,7 +45870,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.704179735447956</v>
+        <v>1.610629881564672</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.923074165182918</v>
@@ -46187,7 +45959,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.708902348581433</v>
+        <v>1.623195258939708</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.107903336223741</v>
@@ -46276,7 +46048,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.704409974196463</v>
+        <v>1.618386126073331</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.027092548401447</v>
@@ -46365,7 +46137,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.723568302883335</v>
+        <v>1.625586537561925</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.769906439184783</v>
@@ -46454,7 +46226,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.726053431122678</v>
+        <v>1.62287572190942</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.350583439759072</v>
@@ -46740,7 +46512,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.617681373846343</v>
+        <v>1.640762645129325</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.477969948086585</v>
@@ -46829,7 +46601,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.607685132371385</v>
+        <v>1.630695636329871</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.485588150236892</v>
@@ -46918,7 +46690,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614034304826918</v>
+        <v>1.635742754923094</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.468290359640056</v>
@@ -47007,7 +46779,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.542320433443405</v>
+        <v>1.558298634096946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.884152742850971</v>
@@ -47096,7 +46868,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.48689699640505</v>
+        <v>1.514663248626614</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.793849840957392</v>
@@ -47185,7 +46957,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.469008711850248</v>
+        <v>1.490932897834039</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.785630252136946</v>
@@ -47274,7 +47046,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.438827057683332</v>
+        <v>1.455937051485668</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.748402153322966</v>
@@ -47363,7 +47135,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.429091949413545</v>
+        <v>1.448295179167409</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.732027174062704</v>
@@ -47452,7 +47224,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.43669239831133</v>
+        <v>1.4565529486669</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.72747595688315</v>
@@ -47541,7 +47313,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.401552936163327</v>
+        <v>1.413325428237535</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.686688735341899</v>
@@ -47630,7 +47402,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.389989633295091</v>
+        <v>1.397302234857918</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.643118681095161</v>
@@ -47719,7 +47491,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.330423169297183</v>
+        <v>1.322331226160751</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.608845222933455</v>
@@ -47808,7 +47580,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.328545470152957</v>
+        <v>1.322009825620925</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.611835706648345</v>
@@ -47897,7 +47669,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.368810025225597</v>
+        <v>1.358019448313721</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.670676721878078</v>
@@ -47986,7 +47758,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.3782558552247</v>
+        <v>1.372683168791121</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.705079503163231</v>
@@ -48075,7 +47847,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.392867136460584</v>
+        <v>1.392918409187402</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.73400572214798</v>
@@ -48164,7 +47936,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.404679695029605</v>
+        <v>1.404255197920302</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.753039631444984</v>
@@ -48253,7 +48025,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.405966679246915</v>
+        <v>1.410263831143421</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.759921284975518</v>
@@ -48342,7 +48114,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.503643343177828</v>
+        <v>1.510442334225511</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.448740518445358</v>
@@ -48431,7 +48203,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529758799306605</v>
+        <v>1.535782244462189</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.175203202126498</v>
@@ -48520,7 +48292,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518976208530636</v>
+        <v>1.527175447909103</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.391798672573779</v>
@@ -48609,7 +48381,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.521429281116869</v>
+        <v>1.529587639877669</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.388414340606578</v>
@@ -48698,7 +48470,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.522385237481643</v>
+        <v>1.528290262784705</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.375266059802871</v>
@@ -48787,7 +48559,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.518675050671033</v>
+        <v>1.522768462125388</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.365019139977024</v>
@@ -48876,7 +48648,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.510957335728082</v>
+        <v>1.5153466282977</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.421811998750734</v>
@@ -48965,7 +48737,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.509197759640185</v>
+        <v>1.516116225241956</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.42912615856073</v>
@@ -49054,7 +48826,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.555743481508816</v>
+        <v>1.564623546907232</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.289642127965767</v>
@@ -49143,7 +48915,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.586643540403606</v>
+        <v>1.59294724528021</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.461501289324674</v>
@@ -49232,7 +49004,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590169757106374</v>
+        <v>1.614754339331507</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.84474059746157</v>
@@ -49321,7 +49093,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.572700952073279</v>
+        <v>1.598947188455797</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.459174289942502</v>
@@ -49410,7 +49182,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.560246347264937</v>
+        <v>1.584817362318003</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.726596063823747</v>
@@ -49499,7 +49271,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.565173918742544</v>
+        <v>1.589310799691364</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.7243337463083</v>
@@ -49588,7 +49360,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.543668535906506</v>
+        <v>1.546546910737317</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.404144686917204</v>
@@ -49677,7 +49449,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.52872611692833</v>
+        <v>1.528284602577589</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.395916527542003</v>
@@ -49766,7 +49538,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.509203700671008</v>
+        <v>1.509263383740699</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.361929685055252</v>
@@ -49855,7 +49627,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.526201951810311</v>
+        <v>1.524425487234629</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.353524991605926</v>
@@ -49944,7 +49716,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.520611679517972</v>
+        <v>1.520056643369497</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.319926373884353</v>
@@ -50033,7 +49805,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.510938182784207</v>
+        <v>1.509532007693884</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.344056058659032</v>
@@ -50122,7 +49894,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.510748869154002</v>
+        <v>1.511277274406139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.190544018676434</v>
@@ -50211,7 +49983,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.550266525419882</v>
+        <v>1.554947175468049</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.394236243579613</v>
@@ -50300,7 +50072,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.550619847649642</v>
+        <v>1.555536835248786</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.428938368730347</v>
@@ -50389,7 +50161,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.516874798848969</v>
+        <v>1.513867240153765</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.252342499486276</v>
@@ -50478,7 +50250,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.506879662170011</v>
+        <v>1.498738630586069</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.203567378417306</v>
@@ -50567,7 +50339,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.489883109000332</v>
+        <v>1.481838429469941</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.275849122798132</v>
@@ -50656,7 +50428,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.488659256323763</v>
+        <v>1.480450488436619</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.230242750082088</v>
@@ -50745,7 +50517,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.486412038266606</v>
+        <v>1.479564867019189</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.266832951600468</v>
@@ -50834,7 +50606,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.489307845508527</v>
+        <v>1.483872901071037</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.222617944659638</v>
@@ -50923,7 +50695,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.515001011631191</v>
+        <v>1.525683518931989</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.334047625465839</v>
@@ -51012,7 +50784,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.494474042474226</v>
+        <v>1.508920048479482</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.196256163561433</v>
@@ -51101,7 +50873,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.492545940915642</v>
+        <v>1.502833615857307</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.197840536627662</v>
@@ -51190,7 +50962,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.530536006653676</v>
+        <v>1.547085911029094</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.411388961994423</v>
@@ -51279,7 +51051,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609846769241592</v>
+        <v>1.636762520291296</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.559862049171526</v>
@@ -51368,7 +51140,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.620090717116325</v>
+        <v>1.648712272882531</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.462867115414542</v>
@@ -51457,7 +51229,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.622906602460217</v>
+        <v>1.651158904464503</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.645632238952762</v>
@@ -51546,7 +51318,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.591633853246942</v>
+        <v>1.61850997365188</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.78077846843252</v>
@@ -51635,7 +51407,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.594301412000882</v>
+        <v>1.623258096676142</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.77151118197392</v>
@@ -51724,7 +51496,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.590849596683015</v>
+        <v>1.621027279125535</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.816843753621751</v>
@@ -51813,7 +51585,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.604289437445281</v>
+        <v>1.635154366852142</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.559437831042616</v>
@@ -51902,7 +51674,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.606493085329025</v>
+        <v>1.638921056316099</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.757242135261193</v>
@@ -51991,7 +51763,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.613445266231354</v>
+        <v>1.642985234755665</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.722554043032648</v>
@@ -52080,7 +51852,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.611526273700429</v>
+        <v>1.638500291667568</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.679053115182326</v>
@@ -52169,7 +51941,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.631277688977662</v>
+        <v>1.65564185214507</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.655457594488862</v>
@@ -52258,7 +52030,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.621236155396733</v>
+        <v>1.644801967417706</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.814966265694602</v>
@@ -52347,7 +52119,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.635439209054378</v>
+        <v>1.659767448205631</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.665824484640379</v>
@@ -52436,7 +52208,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.659421336969419</v>
+        <v>1.678936632432057</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.49494243958753</v>
@@ -52525,7 +52297,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.62649285873645</v>
+        <v>1.645587978613429</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.695994783320985</v>
@@ -52614,7 +52386,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.544204059823421</v>
+        <v>1.548937679018618</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.235074738036118</v>
@@ -52703,7 +52475,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.545032017686152</v>
+        <v>1.550342059582918</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.669588454996228</v>
@@ -52792,7 +52564,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.531794068842141</v>
+        <v>1.542496200253548</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.501901309625527</v>
@@ -52881,7 +52653,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.530114069822464</v>
+        <v>1.542922004324261</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.392233566128701</v>
@@ -52970,7 +52742,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.545099345144606</v>
+        <v>1.557253450158275</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.377666931428409</v>
@@ -53059,7 +52831,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.566017255311169</v>
+        <v>1.581135027865703</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.591359587558698</v>
@@ -53148,7 +52920,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.585575182289818</v>
+        <v>1.599322907695447</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.693316631130721</v>
@@ -53237,7 +53009,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.543639306956898</v>
+        <v>1.557477109417786</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.587989066043094</v>
@@ -53326,7 +53098,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.456054131450441</v>
+        <v>1.474256821445323</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.803781306481968</v>
@@ -53415,7 +53187,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.445537318187627</v>
+        <v>1.468750287286985</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.812501104535062</v>
@@ -53504,7 +53276,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.434703699137158</v>
+        <v>1.454626251086348</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.827265488269867</v>
@@ -53593,7 +53365,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.453174165873146</v>
+        <v>1.476156185028076</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.794625420237202</v>
@@ -53682,7 +53454,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.437399045584665</v>
+        <v>1.461671033820114</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.832684130616876</v>
@@ -53771,7 +53543,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.43020812047522</v>
+        <v>1.456994555378704</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.8366292589671</v>
@@ -53860,7 +53632,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.440808950231826</v>
+        <v>1.466226242729198</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.80273434242898</v>
